--- a/SW deliveries log/Project Plan.xlsx
+++ b/SW deliveries log/Project Plan.xlsx
@@ -12,7 +12,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="31" uniqueCount="21">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="61" uniqueCount="40">
   <si>
     <t>Team member</t>
   </si>
@@ -26,7 +26,7 @@
     <t>Start Date</t>
   </si>
   <si>
-    <t>Deadline</t>
+    <t>Expcted Delivery Date</t>
   </si>
   <si>
     <t>Estimated Duration</t>
@@ -35,6 +35,15 @@
     <t>Describtion and Comments</t>
   </si>
   <si>
+    <t>Review Status</t>
+  </si>
+  <si>
+    <t>Reviewer Comments</t>
+  </si>
+  <si>
+    <t>Status</t>
+  </si>
+  <si>
     <t>May Abdelsalam</t>
   </si>
   <si>
@@ -53,6 +62,9 @@
     <t>1 day</t>
   </si>
   <si>
+    <t>Done</t>
+  </si>
+  <si>
     <t>Areej Helal</t>
   </si>
   <si>
@@ -62,7 +74,7 @@
     <t>23/1/2020</t>
   </si>
   <si>
-    <t>Mina Helmy and Bishoy</t>
+    <t>Mina Yousry and Bishoy</t>
   </si>
   <si>
     <t>Write HSI Document</t>
@@ -75,12 +87,60 @@
   </si>
   <si>
     <t>24/1/2020</t>
+  </si>
+  <si>
+    <t xml:space="preserve">May Abdelsalam </t>
+  </si>
+  <si>
+    <t>Update CYRS Document</t>
+  </si>
+  <si>
+    <t xml:space="preserve">Non-Technical </t>
+  </si>
+  <si>
+    <t>2 days</t>
+  </si>
+  <si>
+    <t>update the formating of the CYRS document and update it according to the review document</t>
+  </si>
+  <si>
+    <t>Pending</t>
+  </si>
+  <si>
+    <t>Update HSI Document</t>
+  </si>
+  <si>
+    <t>update the formating of the HSI document and update it according to the review document</t>
+  </si>
+  <si>
+    <t>Bishoy Nabil And Mina Yousry</t>
+  </si>
+  <si>
+    <t>Update SRS Document</t>
+  </si>
+  <si>
+    <t>3 days</t>
+  </si>
+  <si>
+    <t>update the formating of the SRS document and modify it to match the updated CYRS document</t>
+  </si>
+  <si>
+    <t>Update RTM</t>
+  </si>
+  <si>
+    <t>1 hr</t>
+  </si>
+  <si>
+    <t>update RTM with new CYRS ,SRS ,and HSI requirments</t>
   </si>
 </sst>
 </file>
 
 <file path=xl/styles.xml><?xml version="1.0" encoding="utf-8"?>
 <styleSheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006">
+  <numFmts count="1">
+    <numFmt numFmtId="164" formatCode="m/d/yyyy"/>
+  </numFmts>
   <fonts count="3">
     <font>
       <sz val="10.0"/>
@@ -107,7 +167,7 @@
       </patternFill>
     </fill>
   </fills>
-  <borders count="2">
+  <borders count="3">
     <border/>
     <border>
       <left style="thin">
@@ -123,15 +183,29 @@
         <color rgb="FF000000"/>
       </bottom>
     </border>
+    <border>
+      <left style="thin">
+        <color rgb="FF000000"/>
+      </left>
+      <top style="thin">
+        <color rgb="FF000000"/>
+      </top>
+      <bottom style="thin">
+        <color rgb="FF000000"/>
+      </bottom>
+    </border>
   </borders>
   <cellStyleXfs count="1">
     <xf borderId="0" fillId="0" fontId="0" numFmtId="0" applyAlignment="1" applyFont="1"/>
   </cellStyleXfs>
-  <cellXfs count="5">
+  <cellXfs count="12">
     <xf borderId="0" fillId="0" fontId="0" numFmtId="0" xfId="0" applyAlignment="1" applyFont="1">
       <alignment readingOrder="0" shrinkToFit="0" vertical="bottom" wrapText="0"/>
     </xf>
     <xf borderId="1" fillId="2" fontId="1" numFmtId="0" xfId="0" applyAlignment="1" applyBorder="1" applyFill="1" applyFont="1">
+      <alignment readingOrder="0"/>
+    </xf>
+    <xf borderId="1" fillId="2" fontId="2" numFmtId="0" xfId="0" applyAlignment="1" applyBorder="1" applyFont="1">
       <alignment readingOrder="0"/>
     </xf>
     <xf borderId="1" fillId="0" fontId="2" numFmtId="0" xfId="0" applyAlignment="1" applyBorder="1" applyFont="1">
@@ -139,6 +213,24 @@
     </xf>
     <xf borderId="1" fillId="0" fontId="1" numFmtId="0" xfId="0" applyAlignment="1" applyBorder="1" applyFont="1">
       <alignment readingOrder="0"/>
+    </xf>
+    <xf borderId="1" fillId="0" fontId="2" numFmtId="164" xfId="0" applyAlignment="1" applyBorder="1" applyFont="1" applyNumberFormat="1">
+      <alignment horizontal="left" readingOrder="0"/>
+    </xf>
+    <xf borderId="1" fillId="0" fontId="2" numFmtId="0" xfId="0" applyAlignment="1" applyBorder="1" applyFont="1">
+      <alignment horizontal="left" readingOrder="0" shrinkToFit="0" vertical="top" wrapText="1"/>
+    </xf>
+    <xf borderId="1" fillId="0" fontId="1" numFmtId="0" xfId="0" applyAlignment="1" applyBorder="1" applyFont="1">
+      <alignment horizontal="left" readingOrder="0" shrinkToFit="0" vertical="top" wrapText="1"/>
+    </xf>
+    <xf borderId="2" fillId="0" fontId="2" numFmtId="0" xfId="0" applyAlignment="1" applyBorder="1" applyFont="1">
+      <alignment readingOrder="0" shrinkToFit="0" wrapText="1"/>
+    </xf>
+    <xf borderId="1" fillId="0" fontId="2" numFmtId="0" xfId="0" applyAlignment="1" applyBorder="1" applyFont="1">
+      <alignment readingOrder="0" shrinkToFit="0" wrapText="1"/>
+    </xf>
+    <xf borderId="1" fillId="0" fontId="1" numFmtId="0" xfId="0" applyAlignment="1" applyBorder="1" applyFont="1">
+      <alignment readingOrder="0" shrinkToFit="0" wrapText="1"/>
     </xf>
     <xf borderId="1" fillId="0" fontId="1" numFmtId="0" xfId="0" applyBorder="1" applyFont="1"/>
   </cellXfs>
@@ -361,12 +453,16 @@
   </sheetViews>
   <sheetFormatPr customHeight="1" defaultColWidth="14.43" defaultRowHeight="15.75"/>
   <cols>
-    <col customWidth="1" min="1" max="1" width="24.29"/>
+    <col customWidth="1" min="1" max="1" width="26.0"/>
     <col customWidth="1" min="2" max="2" width="35.43"/>
     <col customWidth="1" min="3" max="3" width="17.86"/>
     <col customWidth="1" min="4" max="4" width="16.14"/>
-    <col customWidth="1" min="5" max="6" width="18.14"/>
-    <col customWidth="1" min="7" max="7" width="24.86"/>
+    <col customWidth="1" min="5" max="5" width="20.57"/>
+    <col customWidth="1" min="6" max="6" width="18.14"/>
+    <col customWidth="1" min="7" max="7" width="43.0"/>
+    <col customWidth="1" min="8" max="8" width="18.71"/>
+    <col customWidth="1" min="9" max="9" width="20.57"/>
+    <col customWidth="1" min="10" max="10" width="18.71"/>
   </cols>
   <sheetData>
     <row r="1">
@@ -382,7 +478,7 @@
       <c r="D1" s="1" t="s">
         <v>3</v>
       </c>
-      <c r="E1" s="1" t="s">
+      <c r="E1" s="2" t="s">
         <v>4</v>
       </c>
       <c r="F1" s="1" t="s">
@@ -391,360 +487,541 @@
       <c r="G1" s="1" t="s">
         <v>6</v>
       </c>
+      <c r="H1" s="2" t="s">
+        <v>7</v>
+      </c>
+      <c r="I1" s="2" t="s">
+        <v>8</v>
+      </c>
+      <c r="J1" s="2" t="s">
+        <v>9</v>
+      </c>
     </row>
     <row r="2">
-      <c r="A2" s="2" t="s">
-        <v>7</v>
-      </c>
-      <c r="B2" s="2" t="s">
-        <v>8</v>
-      </c>
-      <c r="C2" s="3" t="s">
-        <v>9</v>
-      </c>
-      <c r="D2" s="3" t="s">
+      <c r="A2" s="3" t="s">
         <v>10</v>
       </c>
-      <c r="E2" s="3" t="s">
+      <c r="B2" s="3" t="s">
         <v>11</v>
       </c>
-      <c r="F2" s="2" t="s">
+      <c r="C2" s="4" t="s">
         <v>12</v>
       </c>
-      <c r="G2" s="2"/>
+      <c r="D2" s="4" t="s">
+        <v>13</v>
+      </c>
+      <c r="E2" s="4" t="s">
+        <v>14</v>
+      </c>
+      <c r="F2" s="3" t="s">
+        <v>15</v>
+      </c>
+      <c r="G2" s="3"/>
+      <c r="H2" s="4"/>
+      <c r="I2" s="4"/>
+      <c r="J2" s="3" t="s">
+        <v>16</v>
+      </c>
     </row>
     <row r="3">
-      <c r="A3" s="3" t="s">
-        <v>13</v>
-      </c>
-      <c r="B3" s="3" t="s">
+      <c r="A3" s="4" t="s">
+        <v>17</v>
+      </c>
+      <c r="B3" s="4" t="s">
+        <v>18</v>
+      </c>
+      <c r="C3" s="4" t="s">
+        <v>12</v>
+      </c>
+      <c r="D3" s="4" t="s">
         <v>14</v>
       </c>
-      <c r="C3" s="3" t="s">
-        <v>9</v>
-      </c>
-      <c r="D3" s="3" t="s">
-        <v>11</v>
-      </c>
-      <c r="E3" s="3" t="s">
+      <c r="E3" s="4" t="s">
+        <v>19</v>
+      </c>
+      <c r="F3" s="3" t="s">
         <v>15</v>
       </c>
-      <c r="F3" s="2" t="s">
+      <c r="G3" s="3"/>
+      <c r="H3" s="4"/>
+      <c r="I3" s="4"/>
+      <c r="J3" s="3" t="s">
+        <v>16</v>
+      </c>
+    </row>
+    <row r="4">
+      <c r="A4" s="3" t="s">
+        <v>20</v>
+      </c>
+      <c r="B4" s="4" t="s">
+        <v>21</v>
+      </c>
+      <c r="C4" s="4" t="s">
         <v>12</v>
       </c>
-      <c r="G3" s="2"/>
-    </row>
-    <row r="4">
-      <c r="A4" s="2" t="s">
+      <c r="D4" s="4" t="s">
+        <v>14</v>
+      </c>
+      <c r="E4" s="4" t="s">
+        <v>19</v>
+      </c>
+      <c r="F4" s="3" t="s">
+        <v>15</v>
+      </c>
+      <c r="G4" s="3"/>
+      <c r="H4" s="4"/>
+      <c r="I4" s="4"/>
+      <c r="J4" s="3" t="s">
         <v>16</v>
       </c>
-      <c r="B4" s="3" t="s">
+    </row>
+    <row r="5" ht="20.25" customHeight="1">
+      <c r="A5" s="4" t="s">
+        <v>22</v>
+      </c>
+      <c r="B5" s="4" t="s">
+        <v>23</v>
+      </c>
+      <c r="C5" s="4" t="s">
+        <v>12</v>
+      </c>
+      <c r="D5" s="4" t="s">
+        <v>19</v>
+      </c>
+      <c r="E5" s="4" t="s">
+        <v>24</v>
+      </c>
+      <c r="F5" s="3" t="s">
+        <v>15</v>
+      </c>
+      <c r="G5" s="3"/>
+      <c r="H5" s="4"/>
+      <c r="I5" s="4"/>
+      <c r="J5" s="3" t="s">
+        <v>16</v>
+      </c>
+    </row>
+    <row r="6" ht="30.0" customHeight="1">
+      <c r="A6" s="3" t="s">
+        <v>25</v>
+      </c>
+      <c r="B6" s="3" t="s">
+        <v>26</v>
+      </c>
+      <c r="C6" s="3" t="s">
+        <v>27</v>
+      </c>
+      <c r="D6" s="5">
+        <v>43864.0</v>
+      </c>
+      <c r="E6" s="5">
+        <v>43865.0</v>
+      </c>
+      <c r="F6" s="3" t="s">
+        <v>28</v>
+      </c>
+      <c r="G6" s="6" t="s">
+        <v>29</v>
+      </c>
+      <c r="H6" s="6"/>
+      <c r="I6" s="7"/>
+      <c r="J6" s="6" t="s">
+        <v>30</v>
+      </c>
+    </row>
+    <row r="7">
+      <c r="A7" s="3" t="s">
         <v>17</v>
       </c>
-      <c r="C4" s="3" t="s">
-        <v>9</v>
-      </c>
-      <c r="D4" s="3" t="s">
-        <v>11</v>
-      </c>
-      <c r="E4" s="3" t="s">
-        <v>15</v>
-      </c>
-      <c r="F4" s="2" t="s">
-        <v>12</v>
-      </c>
-      <c r="G4" s="2"/>
-    </row>
-    <row r="5">
-      <c r="A5" s="3" t="s">
-        <v>18</v>
-      </c>
-      <c r="B5" s="3" t="s">
-        <v>19</v>
-      </c>
-      <c r="C5" s="3" t="s">
-        <v>9</v>
-      </c>
-      <c r="D5" s="3" t="s">
-        <v>15</v>
-      </c>
-      <c r="E5" s="3" t="s">
-        <v>20</v>
-      </c>
-      <c r="F5" s="2" t="s">
-        <v>12</v>
-      </c>
-      <c r="G5" s="2"/>
-    </row>
-    <row r="6">
-      <c r="A6" s="2"/>
-      <c r="B6" s="2"/>
-      <c r="C6" s="2"/>
-      <c r="D6" s="3"/>
-      <c r="E6" s="3"/>
-      <c r="F6" s="3"/>
-      <c r="G6" s="3"/>
-    </row>
-    <row r="7">
-      <c r="A7" s="4"/>
-      <c r="B7" s="4"/>
-      <c r="C7" s="4"/>
-      <c r="D7" s="4"/>
-      <c r="E7" s="4"/>
-      <c r="F7" s="4"/>
-      <c r="G7" s="4"/>
-    </row>
-    <row r="8">
-      <c r="A8" s="4"/>
-      <c r="B8" s="4"/>
-      <c r="C8" s="4"/>
-      <c r="D8" s="4"/>
-      <c r="E8" s="4"/>
-      <c r="F8" s="4"/>
-      <c r="G8" s="4"/>
+      <c r="B7" s="3" t="s">
+        <v>31</v>
+      </c>
+      <c r="C7" s="3" t="s">
+        <v>27</v>
+      </c>
+      <c r="D7" s="5">
+        <v>43864.0</v>
+      </c>
+      <c r="E7" s="5">
+        <v>43865.0</v>
+      </c>
+      <c r="F7" s="3" t="s">
+        <v>28</v>
+      </c>
+      <c r="G7" s="8" t="s">
+        <v>32</v>
+      </c>
+      <c r="H7" s="9"/>
+      <c r="I7" s="9"/>
+      <c r="J7" s="9" t="s">
+        <v>30</v>
+      </c>
+    </row>
+    <row r="8" ht="39.0" customHeight="1">
+      <c r="A8" s="3" t="s">
+        <v>33</v>
+      </c>
+      <c r="B8" s="3" t="s">
+        <v>34</v>
+      </c>
+      <c r="C8" s="3" t="s">
+        <v>27</v>
+      </c>
+      <c r="D8" s="5">
+        <v>43865.0</v>
+      </c>
+      <c r="E8" s="5">
+        <v>43868.0</v>
+      </c>
+      <c r="F8" s="3" t="s">
+        <v>35</v>
+      </c>
+      <c r="G8" s="9" t="s">
+        <v>36</v>
+      </c>
+      <c r="H8" s="9"/>
+      <c r="I8" s="10"/>
+      <c r="J8" s="9" t="s">
+        <v>30</v>
+      </c>
     </row>
     <row r="9">
-      <c r="A9" s="4"/>
-      <c r="B9" s="4"/>
-      <c r="C9" s="4"/>
-      <c r="D9" s="4"/>
-      <c r="E9" s="4"/>
-      <c r="F9" s="4"/>
-      <c r="G9" s="4"/>
+      <c r="A9" s="3" t="s">
+        <v>22</v>
+      </c>
+      <c r="B9" s="3" t="s">
+        <v>37</v>
+      </c>
+      <c r="C9" s="3" t="s">
+        <v>27</v>
+      </c>
+      <c r="D9" s="5">
+        <v>43868.0</v>
+      </c>
+      <c r="E9" s="5">
+        <v>43868.0</v>
+      </c>
+      <c r="F9" s="3" t="s">
+        <v>38</v>
+      </c>
+      <c r="G9" s="9" t="s">
+        <v>39</v>
+      </c>
+      <c r="H9" s="11"/>
+      <c r="I9" s="11"/>
+      <c r="J9" s="11"/>
     </row>
     <row r="10">
-      <c r="A10" s="4"/>
-      <c r="B10" s="4"/>
-      <c r="C10" s="4"/>
-      <c r="D10" s="4"/>
-      <c r="E10" s="4"/>
-      <c r="F10" s="4"/>
-      <c r="G10" s="4"/>
+      <c r="A10" s="11"/>
+      <c r="B10" s="11"/>
+      <c r="C10" s="11"/>
+      <c r="D10" s="11"/>
+      <c r="E10" s="11"/>
+      <c r="F10" s="11"/>
+      <c r="G10" s="11"/>
+      <c r="H10" s="11"/>
+      <c r="I10" s="11"/>
+      <c r="J10" s="11"/>
     </row>
     <row r="11">
-      <c r="A11" s="4"/>
-      <c r="B11" s="4"/>
-      <c r="C11" s="4"/>
-      <c r="D11" s="4"/>
-      <c r="E11" s="4"/>
-      <c r="F11" s="4"/>
-      <c r="G11" s="4"/>
+      <c r="A11" s="11"/>
+      <c r="B11" s="11"/>
+      <c r="C11" s="11"/>
+      <c r="D11" s="11"/>
+      <c r="E11" s="11"/>
+      <c r="F11" s="11"/>
+      <c r="G11" s="11"/>
+      <c r="H11" s="11"/>
+      <c r="I11" s="11"/>
+      <c r="J11" s="11"/>
     </row>
     <row r="12">
-      <c r="A12" s="4"/>
-      <c r="B12" s="4"/>
-      <c r="C12" s="4"/>
-      <c r="D12" s="4"/>
-      <c r="E12" s="4"/>
-      <c r="F12" s="4"/>
-      <c r="G12" s="4"/>
+      <c r="A12" s="11"/>
+      <c r="B12" s="11"/>
+      <c r="C12" s="11"/>
+      <c r="D12" s="11"/>
+      <c r="E12" s="11"/>
+      <c r="F12" s="11"/>
+      <c r="G12" s="11"/>
+      <c r="H12" s="11"/>
+      <c r="I12" s="11"/>
+      <c r="J12" s="11"/>
     </row>
     <row r="13">
-      <c r="A13" s="4"/>
-      <c r="B13" s="4"/>
-      <c r="C13" s="4"/>
-      <c r="D13" s="4"/>
-      <c r="E13" s="4"/>
-      <c r="F13" s="4"/>
-      <c r="G13" s="4"/>
+      <c r="A13" s="11"/>
+      <c r="B13" s="11"/>
+      <c r="C13" s="11"/>
+      <c r="D13" s="11"/>
+      <c r="E13" s="11"/>
+      <c r="F13" s="11"/>
+      <c r="G13" s="11"/>
+      <c r="H13" s="11"/>
+      <c r="I13" s="11"/>
+      <c r="J13" s="11"/>
     </row>
     <row r="14">
-      <c r="A14" s="4"/>
-      <c r="B14" s="4"/>
-      <c r="C14" s="4"/>
-      <c r="D14" s="4"/>
-      <c r="E14" s="4"/>
-      <c r="F14" s="4"/>
-      <c r="G14" s="4"/>
+      <c r="A14" s="11"/>
+      <c r="B14" s="11"/>
+      <c r="C14" s="11"/>
+      <c r="D14" s="11"/>
+      <c r="E14" s="11"/>
+      <c r="F14" s="11"/>
+      <c r="G14" s="11"/>
+      <c r="H14" s="11"/>
+      <c r="I14" s="11"/>
+      <c r="J14" s="11"/>
     </row>
     <row r="15">
-      <c r="A15" s="4"/>
-      <c r="B15" s="4"/>
-      <c r="C15" s="4"/>
-      <c r="D15" s="4"/>
-      <c r="E15" s="4"/>
-      <c r="F15" s="4"/>
-      <c r="G15" s="4"/>
+      <c r="A15" s="11"/>
+      <c r="B15" s="11"/>
+      <c r="C15" s="11"/>
+      <c r="D15" s="11"/>
+      <c r="E15" s="11"/>
+      <c r="F15" s="11"/>
+      <c r="G15" s="11"/>
+      <c r="H15" s="11"/>
+      <c r="I15" s="11"/>
+      <c r="J15" s="11"/>
     </row>
     <row r="16">
-      <c r="A16" s="4"/>
-      <c r="B16" s="4"/>
-      <c r="C16" s="4"/>
-      <c r="D16" s="4"/>
-      <c r="E16" s="4"/>
-      <c r="F16" s="4"/>
-      <c r="G16" s="4"/>
+      <c r="A16" s="11"/>
+      <c r="B16" s="11"/>
+      <c r="C16" s="11"/>
+      <c r="D16" s="11"/>
+      <c r="E16" s="11"/>
+      <c r="F16" s="11"/>
+      <c r="G16" s="11"/>
+      <c r="H16" s="11"/>
+      <c r="I16" s="11"/>
+      <c r="J16" s="11"/>
     </row>
     <row r="17">
-      <c r="A17" s="4"/>
-      <c r="B17" s="4"/>
-      <c r="C17" s="4"/>
-      <c r="D17" s="4"/>
-      <c r="E17" s="4"/>
-      <c r="F17" s="4"/>
-      <c r="G17" s="4"/>
+      <c r="A17" s="11"/>
+      <c r="B17" s="11"/>
+      <c r="C17" s="11"/>
+      <c r="D17" s="11"/>
+      <c r="E17" s="11"/>
+      <c r="F17" s="11"/>
+      <c r="G17" s="11"/>
+      <c r="H17" s="11"/>
+      <c r="I17" s="11"/>
+      <c r="J17" s="11"/>
     </row>
     <row r="18">
-      <c r="A18" s="4"/>
-      <c r="B18" s="4"/>
-      <c r="C18" s="4"/>
-      <c r="D18" s="4"/>
-      <c r="E18" s="4"/>
-      <c r="F18" s="4"/>
-      <c r="G18" s="4"/>
+      <c r="A18" s="11"/>
+      <c r="B18" s="11"/>
+      <c r="C18" s="11"/>
+      <c r="D18" s="11"/>
+      <c r="E18" s="11"/>
+      <c r="F18" s="11"/>
+      <c r="G18" s="11"/>
+      <c r="H18" s="11"/>
+      <c r="I18" s="11"/>
+      <c r="J18" s="11"/>
     </row>
     <row r="19">
-      <c r="A19" s="4"/>
-      <c r="B19" s="4"/>
-      <c r="C19" s="4"/>
-      <c r="D19" s="4"/>
-      <c r="E19" s="4"/>
-      <c r="F19" s="4"/>
-      <c r="G19" s="4"/>
+      <c r="A19" s="11"/>
+      <c r="B19" s="11"/>
+      <c r="C19" s="11"/>
+      <c r="D19" s="11"/>
+      <c r="E19" s="11"/>
+      <c r="F19" s="11"/>
+      <c r="G19" s="11"/>
+      <c r="H19" s="11"/>
+      <c r="I19" s="11"/>
+      <c r="J19" s="11"/>
     </row>
     <row r="20">
-      <c r="A20" s="4"/>
-      <c r="B20" s="4"/>
-      <c r="C20" s="4"/>
-      <c r="D20" s="4"/>
-      <c r="E20" s="4"/>
-      <c r="F20" s="4"/>
-      <c r="G20" s="4"/>
+      <c r="A20" s="11"/>
+      <c r="B20" s="11"/>
+      <c r="C20" s="11"/>
+      <c r="D20" s="11"/>
+      <c r="E20" s="11"/>
+      <c r="F20" s="11"/>
+      <c r="G20" s="11"/>
+      <c r="H20" s="11"/>
+      <c r="I20" s="11"/>
+      <c r="J20" s="11"/>
     </row>
     <row r="21">
-      <c r="A21" s="4"/>
-      <c r="B21" s="4"/>
-      <c r="C21" s="4"/>
-      <c r="D21" s="4"/>
-      <c r="E21" s="4"/>
-      <c r="F21" s="4"/>
-      <c r="G21" s="4"/>
+      <c r="A21" s="11"/>
+      <c r="B21" s="11"/>
+      <c r="C21" s="11"/>
+      <c r="D21" s="11"/>
+      <c r="E21" s="11"/>
+      <c r="F21" s="11"/>
+      <c r="G21" s="11"/>
+      <c r="H21" s="11"/>
+      <c r="I21" s="11"/>
+      <c r="J21" s="11"/>
     </row>
     <row r="22">
-      <c r="A22" s="4"/>
-      <c r="B22" s="4"/>
-      <c r="C22" s="4"/>
-      <c r="D22" s="4"/>
-      <c r="E22" s="4"/>
-      <c r="F22" s="4"/>
-      <c r="G22" s="4"/>
+      <c r="A22" s="11"/>
+      <c r="B22" s="11"/>
+      <c r="C22" s="11"/>
+      <c r="D22" s="11"/>
+      <c r="E22" s="11"/>
+      <c r="F22" s="11"/>
+      <c r="G22" s="11"/>
+      <c r="H22" s="11"/>
+      <c r="I22" s="11"/>
+      <c r="J22" s="11"/>
     </row>
     <row r="23">
-      <c r="A23" s="4"/>
-      <c r="B23" s="4"/>
-      <c r="C23" s="4"/>
-      <c r="D23" s="4"/>
-      <c r="E23" s="4"/>
-      <c r="F23" s="4"/>
-      <c r="G23" s="4"/>
+      <c r="A23" s="11"/>
+      <c r="B23" s="11"/>
+      <c r="C23" s="11"/>
+      <c r="D23" s="11"/>
+      <c r="E23" s="11"/>
+      <c r="F23" s="11"/>
+      <c r="G23" s="11"/>
+      <c r="H23" s="11"/>
+      <c r="I23" s="11"/>
+      <c r="J23" s="11"/>
     </row>
     <row r="24">
-      <c r="A24" s="4"/>
-      <c r="B24" s="4"/>
-      <c r="C24" s="4"/>
-      <c r="D24" s="4"/>
-      <c r="E24" s="4"/>
-      <c r="F24" s="4"/>
-      <c r="G24" s="4"/>
+      <c r="A24" s="11"/>
+      <c r="B24" s="11"/>
+      <c r="C24" s="11"/>
+      <c r="D24" s="11"/>
+      <c r="E24" s="11"/>
+      <c r="F24" s="11"/>
+      <c r="G24" s="11"/>
+      <c r="H24" s="11"/>
+      <c r="I24" s="11"/>
+      <c r="J24" s="11"/>
     </row>
     <row r="25">
-      <c r="A25" s="4"/>
-      <c r="B25" s="4"/>
-      <c r="C25" s="4"/>
-      <c r="D25" s="4"/>
-      <c r="E25" s="4"/>
-      <c r="F25" s="4"/>
-      <c r="G25" s="4"/>
+      <c r="A25" s="11"/>
+      <c r="B25" s="11"/>
+      <c r="C25" s="11"/>
+      <c r="D25" s="11"/>
+      <c r="E25" s="11"/>
+      <c r="F25" s="11"/>
+      <c r="G25" s="11"/>
+      <c r="H25" s="11"/>
+      <c r="I25" s="11"/>
+      <c r="J25" s="11"/>
     </row>
     <row r="26">
-      <c r="A26" s="4"/>
-      <c r="B26" s="4"/>
-      <c r="C26" s="4"/>
-      <c r="D26" s="4"/>
-      <c r="E26" s="4"/>
-      <c r="F26" s="4"/>
-      <c r="G26" s="4"/>
+      <c r="A26" s="11"/>
+      <c r="B26" s="11"/>
+      <c r="C26" s="11"/>
+      <c r="D26" s="11"/>
+      <c r="E26" s="11"/>
+      <c r="F26" s="11"/>
+      <c r="G26" s="11"/>
+      <c r="H26" s="11"/>
+      <c r="I26" s="11"/>
+      <c r="J26" s="11"/>
     </row>
     <row r="27">
-      <c r="A27" s="4"/>
-      <c r="B27" s="4"/>
-      <c r="C27" s="4"/>
-      <c r="D27" s="4"/>
-      <c r="E27" s="4"/>
-      <c r="F27" s="4"/>
-      <c r="G27" s="4"/>
+      <c r="A27" s="11"/>
+      <c r="B27" s="11"/>
+      <c r="C27" s="11"/>
+      <c r="D27" s="11"/>
+      <c r="E27" s="11"/>
+      <c r="F27" s="11"/>
+      <c r="G27" s="11"/>
+      <c r="H27" s="11"/>
+      <c r="I27" s="11"/>
+      <c r="J27" s="11"/>
     </row>
     <row r="28">
-      <c r="A28" s="4"/>
-      <c r="B28" s="4"/>
-      <c r="C28" s="4"/>
-      <c r="D28" s="4"/>
-      <c r="E28" s="4"/>
-      <c r="F28" s="4"/>
-      <c r="G28" s="4"/>
+      <c r="A28" s="11"/>
+      <c r="B28" s="11"/>
+      <c r="C28" s="11"/>
+      <c r="D28" s="11"/>
+      <c r="E28" s="11"/>
+      <c r="F28" s="11"/>
+      <c r="G28" s="11"/>
+      <c r="H28" s="11"/>
+      <c r="I28" s="11"/>
+      <c r="J28" s="11"/>
     </row>
     <row r="29">
-      <c r="A29" s="4"/>
-      <c r="B29" s="4"/>
-      <c r="C29" s="4"/>
-      <c r="D29" s="4"/>
-      <c r="E29" s="4"/>
-      <c r="F29" s="4"/>
-      <c r="G29" s="4"/>
+      <c r="A29" s="11"/>
+      <c r="B29" s="11"/>
+      <c r="C29" s="11"/>
+      <c r="D29" s="11"/>
+      <c r="E29" s="11"/>
+      <c r="F29" s="11"/>
+      <c r="G29" s="11"/>
+      <c r="H29" s="11"/>
+      <c r="I29" s="11"/>
+      <c r="J29" s="11"/>
     </row>
     <row r="30">
-      <c r="A30" s="4"/>
-      <c r="B30" s="4"/>
-      <c r="C30" s="4"/>
-      <c r="D30" s="4"/>
-      <c r="E30" s="4"/>
-      <c r="F30" s="4"/>
-      <c r="G30" s="4"/>
+      <c r="A30" s="11"/>
+      <c r="B30" s="11"/>
+      <c r="C30" s="11"/>
+      <c r="D30" s="11"/>
+      <c r="E30" s="11"/>
+      <c r="F30" s="11"/>
+      <c r="G30" s="11"/>
+      <c r="H30" s="11"/>
+      <c r="I30" s="11"/>
+      <c r="J30" s="11"/>
     </row>
     <row r="31">
-      <c r="A31" s="4"/>
-      <c r="B31" s="4"/>
-      <c r="C31" s="4"/>
-      <c r="D31" s="4"/>
-      <c r="E31" s="4"/>
-      <c r="F31" s="4"/>
-      <c r="G31" s="4"/>
+      <c r="A31" s="11"/>
+      <c r="B31" s="11"/>
+      <c r="C31" s="11"/>
+      <c r="D31" s="11"/>
+      <c r="E31" s="11"/>
+      <c r="F31" s="11"/>
+      <c r="G31" s="11"/>
+      <c r="H31" s="11"/>
+      <c r="I31" s="11"/>
+      <c r="J31" s="11"/>
     </row>
     <row r="32">
-      <c r="A32" s="4"/>
-      <c r="B32" s="4"/>
-      <c r="C32" s="4"/>
-      <c r="D32" s="4"/>
-      <c r="E32" s="4"/>
-      <c r="F32" s="4"/>
-      <c r="G32" s="4"/>
+      <c r="A32" s="11"/>
+      <c r="B32" s="11"/>
+      <c r="C32" s="11"/>
+      <c r="D32" s="11"/>
+      <c r="E32" s="11"/>
+      <c r="F32" s="11"/>
+      <c r="G32" s="11"/>
+      <c r="H32" s="11"/>
+      <c r="I32" s="11"/>
+      <c r="J32" s="11"/>
     </row>
     <row r="33">
-      <c r="A33" s="4"/>
-      <c r="B33" s="4"/>
-      <c r="C33" s="4"/>
-      <c r="D33" s="4"/>
-      <c r="E33" s="4"/>
-      <c r="F33" s="4"/>
-      <c r="G33" s="4"/>
+      <c r="A33" s="11"/>
+      <c r="B33" s="11"/>
+      <c r="C33" s="11"/>
+      <c r="D33" s="11"/>
+      <c r="E33" s="11"/>
+      <c r="F33" s="11"/>
+      <c r="G33" s="11"/>
+      <c r="H33" s="11"/>
+      <c r="I33" s="11"/>
+      <c r="J33" s="11"/>
     </row>
     <row r="34">
-      <c r="A34" s="4"/>
-      <c r="B34" s="4"/>
-      <c r="C34" s="4"/>
-      <c r="D34" s="4"/>
-      <c r="E34" s="4"/>
-      <c r="F34" s="4"/>
-      <c r="G34" s="4"/>
+      <c r="A34" s="11"/>
+      <c r="B34" s="11"/>
+      <c r="C34" s="11"/>
+      <c r="D34" s="11"/>
+      <c r="E34" s="11"/>
+      <c r="F34" s="11"/>
+      <c r="G34" s="11"/>
+      <c r="H34" s="11"/>
+      <c r="I34" s="11"/>
+      <c r="J34" s="11"/>
     </row>
     <row r="35">
-      <c r="A35" s="4"/>
-      <c r="B35" s="4"/>
-      <c r="C35" s="4"/>
-      <c r="D35" s="4"/>
-      <c r="E35" s="4"/>
-      <c r="F35" s="4"/>
-      <c r="G35" s="4"/>
+      <c r="A35" s="11"/>
+      <c r="B35" s="11"/>
+      <c r="C35" s="11"/>
+      <c r="D35" s="11"/>
+      <c r="E35" s="11"/>
+      <c r="F35" s="11"/>
+      <c r="G35" s="11"/>
+      <c r="H35" s="11"/>
+      <c r="I35" s="11"/>
+      <c r="J35" s="11"/>
     </row>
   </sheetData>
   <drawing r:id="rId1"/>

--- a/SW deliveries log/Project Plan.xlsx
+++ b/SW deliveries log/Project Plan.xlsx
@@ -1,18 +1,27 @@
 
 <file path=xl/workbook.xml><?xml version="1.0" encoding="utf-8"?>
-<workbook xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mx="http://schemas.microsoft.com/office/mac/excel/2008/main" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:mv="urn:schemas-microsoft-com:mac:vml" xmlns:x14="http://schemas.microsoft.com/office/spreadsheetml/2009/9/main" xmlns:x15="http://schemas.microsoft.com/office/spreadsheetml/2010/11/main" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xm="http://schemas.microsoft.com/office/excel/2006/main">
+<workbook xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x15="http://schemas.microsoft.com/office/spreadsheetml/2010/11/main" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr6="http://schemas.microsoft.com/office/spreadsheetml/2016/revision6" xmlns:xr10="http://schemas.microsoft.com/office/spreadsheetml/2016/revision10" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" mc:Ignorable="x15 xr xr6 xr10 xr2">
+  <fileVersion appName="xl" lastEdited="7" lowestEdited="7" rupBuild="22325"/>
   <workbookPr/>
+  <mc:AlternateContent xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006">
+    <mc:Choice Requires="x15">
+      <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="C:\Users\Moamen\Desktop\SWE\SW deliveries log\"/>
+    </mc:Choice>
+  </mc:AlternateContent>
+  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{A10BFBB6-0BBE-4413-9739-6A0B4A303483}" xr6:coauthVersionLast="45" xr6:coauthVersionMax="45" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
+  <bookViews>
+    <workbookView xWindow="-120" yWindow="-120" windowWidth="29040" windowHeight="15840" xr2:uid="{00000000-000D-0000-FFFF-FFFF00000000}"/>
+  </bookViews>
   <sheets>
-    <sheet state="visible" name="Sheet1" sheetId="1" r:id="rId4"/>
-    <sheet state="visible" name="Sheet2" sheetId="2" r:id="rId5"/>
+    <sheet name="Sheet1" sheetId="1" r:id="rId1"/>
+    <sheet name="Sheet2" sheetId="2" r:id="rId2"/>
   </sheets>
-  <definedNames/>
-  <calcPr/>
+  <calcPr calcId="0"/>
 </workbook>
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="61" uniqueCount="40">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="62" uniqueCount="39">
   <si>
     <t>Team member</t>
   </si>
@@ -117,9 +126,6 @@
   </si>
   <si>
     <t>Update SRS Document</t>
-  </si>
-  <si>
-    <t>3 days</t>
   </si>
   <si>
     <t>update the formating of the SRS document and modify it to match the updated CYRS document</t>
@@ -137,28 +143,29 @@
 </file>
 
 <file path=xl/styles.xml><?xml version="1.0" encoding="utf-8"?>
-<styleSheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006">
-  <numFmts count="1">
-    <numFmt numFmtId="164" formatCode="m/d/yyyy"/>
-  </numFmts>
-  <fonts count="3">
+<styleSheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:x16r2="http://schemas.microsoft.com/office/spreadsheetml/2015/02/main" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" mc:Ignorable="x14ac x16r2 xr">
+  <fonts count="3" x14ac:knownFonts="1">
     <font>
-      <sz val="10.0"/>
+      <sz val="10"/>
       <color rgb="FF000000"/>
       <name val="Arial"/>
     </font>
     <font>
+      <sz val="10"/>
       <color theme="1"/>
       <name val="Arial"/>
     </font>
-    <font/>
+    <font>
+      <sz val="10"/>
+      <name val="Arial"/>
+    </font>
   </fonts>
   <fills count="3">
     <fill>
       <patternFill patternType="none"/>
     </fill>
     <fill>
-      <patternFill patternType="lightGray"/>
+      <patternFill patternType="gray125"/>
     </fill>
     <fill>
       <patternFill patternType="solid">
@@ -168,7 +175,13 @@
     </fill>
   </fills>
   <borders count="3">
-    <border/>
+    <border>
+      <left/>
+      <right/>
+      <top/>
+      <bottom/>
+      <diagonal/>
+    </border>
     <border>
       <left style="thin">
         <color rgb="FF000000"/>
@@ -182,75 +195,69 @@
       <bottom style="thin">
         <color rgb="FF000000"/>
       </bottom>
+      <diagonal/>
     </border>
     <border>
       <left style="thin">
         <color rgb="FF000000"/>
       </left>
+      <right/>
       <top style="thin">
         <color rgb="FF000000"/>
       </top>
       <bottom style="thin">
         <color rgb="FF000000"/>
       </bottom>
+      <diagonal/>
     </border>
   </borders>
   <cellStyleXfs count="1">
-    <xf borderId="0" fillId="0" fontId="0" numFmtId="0" applyAlignment="1" applyFont="1"/>
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="0"/>
   </cellStyleXfs>
   <cellXfs count="12">
-    <xf borderId="0" fillId="0" fontId="0" numFmtId="0" xfId="0" applyAlignment="1" applyFont="1">
-      <alignment readingOrder="0" shrinkToFit="0" vertical="bottom" wrapText="0"/>
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0" applyFont="1" applyAlignment="1"/>
+    <xf numFmtId="0" fontId="1" fillId="2" borderId="1" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1"/>
+    <xf numFmtId="0" fontId="2" fillId="2" borderId="1" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1"/>
+    <xf numFmtId="0" fontId="2" fillId="0" borderId="1" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1"/>
+    <xf numFmtId="0" fontId="1" fillId="0" borderId="1" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1"/>
+    <xf numFmtId="14" fontId="2" fillId="0" borderId="1" xfId="0" applyNumberFormat="1" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="left"/>
     </xf>
-    <xf borderId="1" fillId="2" fontId="1" numFmtId="0" xfId="0" applyAlignment="1" applyBorder="1" applyFill="1" applyFont="1">
-      <alignment readingOrder="0"/>
+    <xf numFmtId="0" fontId="2" fillId="0" borderId="1" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="left" vertical="top" wrapText="1"/>
     </xf>
-    <xf borderId="1" fillId="2" fontId="2" numFmtId="0" xfId="0" applyAlignment="1" applyBorder="1" applyFont="1">
-      <alignment readingOrder="0"/>
+    <xf numFmtId="0" fontId="1" fillId="0" borderId="1" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="left" vertical="top" wrapText="1"/>
     </xf>
-    <xf borderId="1" fillId="0" fontId="2" numFmtId="0" xfId="0" applyAlignment="1" applyBorder="1" applyFont="1">
-      <alignment readingOrder="0"/>
+    <xf numFmtId="0" fontId="2" fillId="0" borderId="2" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment wrapText="1"/>
     </xf>
-    <xf borderId="1" fillId="0" fontId="1" numFmtId="0" xfId="0" applyAlignment="1" applyBorder="1" applyFont="1">
-      <alignment readingOrder="0"/>
+    <xf numFmtId="0" fontId="2" fillId="0" borderId="1" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment wrapText="1"/>
     </xf>
-    <xf borderId="1" fillId="0" fontId="2" numFmtId="164" xfId="0" applyAlignment="1" applyBorder="1" applyFont="1" applyNumberFormat="1">
-      <alignment horizontal="left" readingOrder="0"/>
+    <xf numFmtId="0" fontId="1" fillId="0" borderId="1" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment wrapText="1"/>
     </xf>
-    <xf borderId="1" fillId="0" fontId="2" numFmtId="0" xfId="0" applyAlignment="1" applyBorder="1" applyFont="1">
-      <alignment horizontal="left" readingOrder="0" shrinkToFit="0" vertical="top" wrapText="1"/>
-    </xf>
-    <xf borderId="1" fillId="0" fontId="1" numFmtId="0" xfId="0" applyAlignment="1" applyBorder="1" applyFont="1">
-      <alignment horizontal="left" readingOrder="0" shrinkToFit="0" vertical="top" wrapText="1"/>
-    </xf>
-    <xf borderId="2" fillId="0" fontId="2" numFmtId="0" xfId="0" applyAlignment="1" applyBorder="1" applyFont="1">
-      <alignment readingOrder="0" shrinkToFit="0" wrapText="1"/>
-    </xf>
-    <xf borderId="1" fillId="0" fontId="2" numFmtId="0" xfId="0" applyAlignment="1" applyBorder="1" applyFont="1">
-      <alignment readingOrder="0" shrinkToFit="0" wrapText="1"/>
-    </xf>
-    <xf borderId="1" fillId="0" fontId="1" numFmtId="0" xfId="0" applyAlignment="1" applyBorder="1" applyFont="1">
-      <alignment readingOrder="0" shrinkToFit="0" wrapText="1"/>
-    </xf>
-    <xf borderId="1" fillId="0" fontId="1" numFmtId="0" xfId="0" applyBorder="1" applyFont="1"/>
+    <xf numFmtId="0" fontId="1" fillId="0" borderId="1" xfId="0" applyFont="1" applyBorder="1"/>
   </cellXfs>
   <cellStyles count="1">
-    <cellStyle xfId="0" name="Normal" builtinId="0"/>
+    <cellStyle name="Normal" xfId="0" builtinId="0"/>
   </cellStyles>
   <dxfs count="0"/>
+  <tableStyles count="0" defaultTableStyle="TableStyleMedium2" defaultPivotStyle="PivotStyleLight16"/>
+  <extLst>
+    <ext xmlns:x14="http://schemas.microsoft.com/office/spreadsheetml/2009/9/main" uri="{EB79DEF2-80B8-43e5-95BD-54CBDDF9020C}">
+      <x14:slicerStyles defaultSlicerStyle="SlicerStyleLight1"/>
+    </ext>
+    <ext xmlns:x15="http://schemas.microsoft.com/office/spreadsheetml/2010/11/main" uri="{9260A510-F301-46a8-8635-F512D64BE5F5}">
+      <x15:timelineStyles defaultTimelineStyle="TimeSlicerStyleLight1"/>
+    </ext>
+  </extLst>
 </styleSheet>
 </file>
 
-<file path=xl/drawings/drawing1.xml><?xml version="1.0" encoding="utf-8"?>
-<xdr:wsDr xmlns:xdr="http://schemas.openxmlformats.org/drawingml/2006/spreadsheetDrawing" xmlns:a="http://schemas.openxmlformats.org/drawingml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:c="http://schemas.openxmlformats.org/drawingml/2006/chart" xmlns:cx="http://schemas.microsoft.com/office/drawing/2014/chartex" xmlns:cx1="http://schemas.microsoft.com/office/drawing/2015/9/8/chartex" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:dgm="http://schemas.openxmlformats.org/drawingml/2006/diagram" xmlns:x3Unk="http://schemas.microsoft.com/office/drawing/2010/slicer" xmlns:sle15="http://schemas.microsoft.com/office/drawing/2012/slicer"/>
-</file>
-
-<file path=xl/drawings/drawing2.xml><?xml version="1.0" encoding="utf-8"?>
-<xdr:wsDr xmlns:xdr="http://schemas.openxmlformats.org/drawingml/2006/spreadsheetDrawing" xmlns:a="http://schemas.openxmlformats.org/drawingml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:c="http://schemas.openxmlformats.org/drawingml/2006/chart" xmlns:cx="http://schemas.microsoft.com/office/drawing/2014/chartex" xmlns:cx1="http://schemas.microsoft.com/office/drawing/2015/9/8/chartex" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:dgm="http://schemas.openxmlformats.org/drawingml/2006/diagram" xmlns:x3Unk="http://schemas.microsoft.com/office/drawing/2010/slicer" xmlns:sle15="http://schemas.microsoft.com/office/drawing/2012/slicer"/>
-</file>
-
 <file path=xl/theme/theme1.xml><?xml version="1.0" encoding="utf-8"?>
-<a:theme xmlns:a="http://schemas.openxmlformats.org/drawingml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" name="Sheets">
+<a:theme xmlns:a="http://schemas.openxmlformats.org/drawingml/2006/main" name="Sheets">
   <a:themeElements>
     <a:clrScheme name="Sheets">
       <a:dk1>
@@ -440,32 +447,37 @@
       </a:bgFillStyleLst>
     </a:fmtScheme>
   </a:themeElements>
+  <a:objectDefaults/>
+  <a:extraClrSchemeLst/>
 </a:theme>
 </file>
 
 <file path=xl/worksheets/sheet1.xml><?xml version="1.0" encoding="utf-8"?>
-<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mx="http://schemas.microsoft.com/office/mac/excel/2008/main" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:mv="urn:schemas-microsoft-com:mac:vml" xmlns:x14="http://schemas.microsoft.com/office/spreadsheetml/2009/9/main" xmlns:x15="http://schemas.microsoft.com/office/spreadsheetml/2010/11/main" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xm="http://schemas.microsoft.com/office/excel/2006/main">
+<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{00000000-0001-0000-0000-000000000000}">
   <sheetPr>
     <outlinePr summaryBelow="0" summaryRight="0"/>
   </sheetPr>
+  <dimension ref="A1:J35"/>
   <sheetViews>
-    <sheetView workbookViewId="0"/>
+    <sheetView tabSelected="1" workbookViewId="0">
+      <selection activeCell="D21" sqref="D21"/>
+    </sheetView>
   </sheetViews>
-  <sheetFormatPr customHeight="1" defaultColWidth="14.43" defaultRowHeight="15.75"/>
+  <sheetFormatPr defaultColWidth="14.42578125" defaultRowHeight="15.75" customHeight="1" x14ac:dyDescent="0.2"/>
   <cols>
-    <col customWidth="1" min="1" max="1" width="26.0"/>
-    <col customWidth="1" min="2" max="2" width="35.43"/>
-    <col customWidth="1" min="3" max="3" width="17.86"/>
-    <col customWidth="1" min="4" max="4" width="16.14"/>
-    <col customWidth="1" min="5" max="5" width="20.57"/>
-    <col customWidth="1" min="6" max="6" width="18.14"/>
-    <col customWidth="1" min="7" max="7" width="43.0"/>
-    <col customWidth="1" min="8" max="8" width="18.71"/>
-    <col customWidth="1" min="9" max="9" width="20.57"/>
-    <col customWidth="1" min="10" max="10" width="18.71"/>
+    <col min="1" max="1" width="26" customWidth="1"/>
+    <col min="2" max="2" width="35.42578125" customWidth="1"/>
+    <col min="3" max="3" width="17.85546875" customWidth="1"/>
+    <col min="4" max="4" width="16.140625" customWidth="1"/>
+    <col min="5" max="5" width="20.5703125" customWidth="1"/>
+    <col min="6" max="6" width="18.140625" customWidth="1"/>
+    <col min="7" max="7" width="43" customWidth="1"/>
+    <col min="8" max="8" width="18.7109375" customWidth="1"/>
+    <col min="9" max="9" width="20.5703125" customWidth="1"/>
+    <col min="10" max="10" width="18.7109375" customWidth="1"/>
   </cols>
   <sheetData>
-    <row r="1">
+    <row r="1" spans="1:10" ht="12.75" x14ac:dyDescent="0.2">
       <c r="A1" s="1" t="s">
         <v>0</v>
       </c>
@@ -497,7 +509,7 @@
         <v>9</v>
       </c>
     </row>
-    <row r="2">
+    <row r="2" spans="1:10" ht="12.75" x14ac:dyDescent="0.2">
       <c r="A2" s="3" t="s">
         <v>10</v>
       </c>
@@ -523,7 +535,7 @@
         <v>16</v>
       </c>
     </row>
-    <row r="3">
+    <row r="3" spans="1:10" ht="12.75" x14ac:dyDescent="0.2">
       <c r="A3" s="4" t="s">
         <v>17</v>
       </c>
@@ -549,7 +561,7 @@
         <v>16</v>
       </c>
     </row>
-    <row r="4">
+    <row r="4" spans="1:10" ht="12.75" x14ac:dyDescent="0.2">
       <c r="A4" s="3" t="s">
         <v>20</v>
       </c>
@@ -575,7 +587,7 @@
         <v>16</v>
       </c>
     </row>
-    <row r="5" ht="20.25" customHeight="1">
+    <row r="5" spans="1:10" ht="20.25" customHeight="1" x14ac:dyDescent="0.2">
       <c r="A5" s="4" t="s">
         <v>22</v>
       </c>
@@ -601,7 +613,7 @@
         <v>16</v>
       </c>
     </row>
-    <row r="6" ht="30.0" customHeight="1">
+    <row r="6" spans="1:10" ht="30" customHeight="1" x14ac:dyDescent="0.2">
       <c r="A6" s="3" t="s">
         <v>25</v>
       </c>
@@ -612,10 +624,10 @@
         <v>27</v>
       </c>
       <c r="D6" s="5">
-        <v>43864.0</v>
+        <v>43864</v>
       </c>
       <c r="E6" s="5">
-        <v>43865.0</v>
+        <v>43866</v>
       </c>
       <c r="F6" s="3" t="s">
         <v>28</v>
@@ -629,7 +641,7 @@
         <v>30</v>
       </c>
     </row>
-    <row r="7">
+    <row r="7" spans="1:10" ht="25.5" x14ac:dyDescent="0.2">
       <c r="A7" s="3" t="s">
         <v>17</v>
       </c>
@@ -640,10 +652,10 @@
         <v>27</v>
       </c>
       <c r="D7" s="5">
-        <v>43864.0</v>
+        <v>43864</v>
       </c>
       <c r="E7" s="5">
-        <v>43865.0</v>
+        <v>43866</v>
       </c>
       <c r="F7" s="3" t="s">
         <v>28</v>
@@ -657,7 +669,7 @@
         <v>30</v>
       </c>
     </row>
-    <row r="8" ht="39.0" customHeight="1">
+    <row r="8" spans="1:10" ht="30.75" customHeight="1" x14ac:dyDescent="0.2">
       <c r="A8" s="3" t="s">
         <v>33</v>
       </c>
@@ -668,16 +680,16 @@
         <v>27</v>
       </c>
       <c r="D8" s="5">
-        <v>43865.0</v>
+        <v>43866</v>
       </c>
       <c r="E8" s="5">
-        <v>43868.0</v>
+        <v>43868</v>
       </c>
       <c r="F8" s="3" t="s">
+        <v>28</v>
+      </c>
+      <c r="G8" s="9" t="s">
         <v>35</v>
-      </c>
-      <c r="G8" s="9" t="s">
-        <v>36</v>
       </c>
       <c r="H8" s="9"/>
       <c r="I8" s="10"/>
@@ -685,33 +697,35 @@
         <v>30</v>
       </c>
     </row>
-    <row r="9">
+    <row r="9" spans="1:10" ht="25.5" x14ac:dyDescent="0.2">
       <c r="A9" s="3" t="s">
         <v>22</v>
       </c>
       <c r="B9" s="3" t="s">
-        <v>37</v>
+        <v>36</v>
       </c>
       <c r="C9" s="3" t="s">
         <v>27</v>
       </c>
       <c r="D9" s="5">
-        <v>43868.0</v>
+        <v>43868</v>
       </c>
       <c r="E9" s="5">
-        <v>43868.0</v>
+        <v>43868</v>
       </c>
       <c r="F9" s="3" t="s">
+        <v>37</v>
+      </c>
+      <c r="G9" s="9" t="s">
         <v>38</v>
-      </c>
-      <c r="G9" s="9" t="s">
-        <v>39</v>
       </c>
       <c r="H9" s="11"/>
       <c r="I9" s="11"/>
-      <c r="J9" s="11"/>
-    </row>
-    <row r="10">
+      <c r="J9" s="11" t="s">
+        <v>30</v>
+      </c>
+    </row>
+    <row r="10" spans="1:10" ht="12.75" x14ac:dyDescent="0.2">
       <c r="A10" s="11"/>
       <c r="B10" s="11"/>
       <c r="C10" s="11"/>
@@ -723,7 +737,7 @@
       <c r="I10" s="11"/>
       <c r="J10" s="11"/>
     </row>
-    <row r="11">
+    <row r="11" spans="1:10" ht="12.75" x14ac:dyDescent="0.2">
       <c r="A11" s="11"/>
       <c r="B11" s="11"/>
       <c r="C11" s="11"/>
@@ -735,7 +749,7 @@
       <c r="I11" s="11"/>
       <c r="J11" s="11"/>
     </row>
-    <row r="12">
+    <row r="12" spans="1:10" ht="12.75" x14ac:dyDescent="0.2">
       <c r="A12" s="11"/>
       <c r="B12" s="11"/>
       <c r="C12" s="11"/>
@@ -747,7 +761,7 @@
       <c r="I12" s="11"/>
       <c r="J12" s="11"/>
     </row>
-    <row r="13">
+    <row r="13" spans="1:10" ht="12.75" x14ac:dyDescent="0.2">
       <c r="A13" s="11"/>
       <c r="B13" s="11"/>
       <c r="C13" s="11"/>
@@ -759,7 +773,7 @@
       <c r="I13" s="11"/>
       <c r="J13" s="11"/>
     </row>
-    <row r="14">
+    <row r="14" spans="1:10" ht="12.75" x14ac:dyDescent="0.2">
       <c r="A14" s="11"/>
       <c r="B14" s="11"/>
       <c r="C14" s="11"/>
@@ -771,7 +785,7 @@
       <c r="I14" s="11"/>
       <c r="J14" s="11"/>
     </row>
-    <row r="15">
+    <row r="15" spans="1:10" ht="12.75" x14ac:dyDescent="0.2">
       <c r="A15" s="11"/>
       <c r="B15" s="11"/>
       <c r="C15" s="11"/>
@@ -783,7 +797,7 @@
       <c r="I15" s="11"/>
       <c r="J15" s="11"/>
     </row>
-    <row r="16">
+    <row r="16" spans="1:10" ht="12.75" x14ac:dyDescent="0.2">
       <c r="A16" s="11"/>
       <c r="B16" s="11"/>
       <c r="C16" s="11"/>
@@ -795,7 +809,7 @@
       <c r="I16" s="11"/>
       <c r="J16" s="11"/>
     </row>
-    <row r="17">
+    <row r="17" spans="1:10" ht="12.75" x14ac:dyDescent="0.2">
       <c r="A17" s="11"/>
       <c r="B17" s="11"/>
       <c r="C17" s="11"/>
@@ -807,7 +821,7 @@
       <c r="I17" s="11"/>
       <c r="J17" s="11"/>
     </row>
-    <row r="18">
+    <row r="18" spans="1:10" ht="12.75" x14ac:dyDescent="0.2">
       <c r="A18" s="11"/>
       <c r="B18" s="11"/>
       <c r="C18" s="11"/>
@@ -819,7 +833,7 @@
       <c r="I18" s="11"/>
       <c r="J18" s="11"/>
     </row>
-    <row r="19">
+    <row r="19" spans="1:10" ht="12.75" x14ac:dyDescent="0.2">
       <c r="A19" s="11"/>
       <c r="B19" s="11"/>
       <c r="C19" s="11"/>
@@ -831,7 +845,7 @@
       <c r="I19" s="11"/>
       <c r="J19" s="11"/>
     </row>
-    <row r="20">
+    <row r="20" spans="1:10" ht="12.75" x14ac:dyDescent="0.2">
       <c r="A20" s="11"/>
       <c r="B20" s="11"/>
       <c r="C20" s="11"/>
@@ -843,7 +857,7 @@
       <c r="I20" s="11"/>
       <c r="J20" s="11"/>
     </row>
-    <row r="21">
+    <row r="21" spans="1:10" ht="12.75" x14ac:dyDescent="0.2">
       <c r="A21" s="11"/>
       <c r="B21" s="11"/>
       <c r="C21" s="11"/>
@@ -855,7 +869,7 @@
       <c r="I21" s="11"/>
       <c r="J21" s="11"/>
     </row>
-    <row r="22">
+    <row r="22" spans="1:10" ht="12.75" x14ac:dyDescent="0.2">
       <c r="A22" s="11"/>
       <c r="B22" s="11"/>
       <c r="C22" s="11"/>
@@ -867,7 +881,7 @@
       <c r="I22" s="11"/>
       <c r="J22" s="11"/>
     </row>
-    <row r="23">
+    <row r="23" spans="1:10" ht="12.75" x14ac:dyDescent="0.2">
       <c r="A23" s="11"/>
       <c r="B23" s="11"/>
       <c r="C23" s="11"/>
@@ -879,7 +893,7 @@
       <c r="I23" s="11"/>
       <c r="J23" s="11"/>
     </row>
-    <row r="24">
+    <row r="24" spans="1:10" ht="12.75" x14ac:dyDescent="0.2">
       <c r="A24" s="11"/>
       <c r="B24" s="11"/>
       <c r="C24" s="11"/>
@@ -891,7 +905,7 @@
       <c r="I24" s="11"/>
       <c r="J24" s="11"/>
     </row>
-    <row r="25">
+    <row r="25" spans="1:10" ht="12.75" x14ac:dyDescent="0.2">
       <c r="A25" s="11"/>
       <c r="B25" s="11"/>
       <c r="C25" s="11"/>
@@ -903,7 +917,7 @@
       <c r="I25" s="11"/>
       <c r="J25" s="11"/>
     </row>
-    <row r="26">
+    <row r="26" spans="1:10" ht="12.75" x14ac:dyDescent="0.2">
       <c r="A26" s="11"/>
       <c r="B26" s="11"/>
       <c r="C26" s="11"/>
@@ -915,7 +929,7 @@
       <c r="I26" s="11"/>
       <c r="J26" s="11"/>
     </row>
-    <row r="27">
+    <row r="27" spans="1:10" ht="12.75" x14ac:dyDescent="0.2">
       <c r="A27" s="11"/>
       <c r="B27" s="11"/>
       <c r="C27" s="11"/>
@@ -927,7 +941,7 @@
       <c r="I27" s="11"/>
       <c r="J27" s="11"/>
     </row>
-    <row r="28">
+    <row r="28" spans="1:10" ht="12.75" x14ac:dyDescent="0.2">
       <c r="A28" s="11"/>
       <c r="B28" s="11"/>
       <c r="C28" s="11"/>
@@ -939,7 +953,7 @@
       <c r="I28" s="11"/>
       <c r="J28" s="11"/>
     </row>
-    <row r="29">
+    <row r="29" spans="1:10" ht="12.75" x14ac:dyDescent="0.2">
       <c r="A29" s="11"/>
       <c r="B29" s="11"/>
       <c r="C29" s="11"/>
@@ -951,7 +965,7 @@
       <c r="I29" s="11"/>
       <c r="J29" s="11"/>
     </row>
-    <row r="30">
+    <row r="30" spans="1:10" ht="12.75" x14ac:dyDescent="0.2">
       <c r="A30" s="11"/>
       <c r="B30" s="11"/>
       <c r="C30" s="11"/>
@@ -963,7 +977,7 @@
       <c r="I30" s="11"/>
       <c r="J30" s="11"/>
     </row>
-    <row r="31">
+    <row r="31" spans="1:10" ht="12.75" x14ac:dyDescent="0.2">
       <c r="A31" s="11"/>
       <c r="B31" s="11"/>
       <c r="C31" s="11"/>
@@ -975,7 +989,7 @@
       <c r="I31" s="11"/>
       <c r="J31" s="11"/>
     </row>
-    <row r="32">
+    <row r="32" spans="1:10" ht="12.75" x14ac:dyDescent="0.2">
       <c r="A32" s="11"/>
       <c r="B32" s="11"/>
       <c r="C32" s="11"/>
@@ -987,7 +1001,7 @@
       <c r="I32" s="11"/>
       <c r="J32" s="11"/>
     </row>
-    <row r="33">
+    <row r="33" spans="1:10" ht="12.75" x14ac:dyDescent="0.2">
       <c r="A33" s="11"/>
       <c r="B33" s="11"/>
       <c r="C33" s="11"/>
@@ -999,7 +1013,7 @@
       <c r="I33" s="11"/>
       <c r="J33" s="11"/>
     </row>
-    <row r="34">
+    <row r="34" spans="1:10" ht="12.75" x14ac:dyDescent="0.2">
       <c r="A34" s="11"/>
       <c r="B34" s="11"/>
       <c r="C34" s="11"/>
@@ -1011,7 +1025,7 @@
       <c r="I34" s="11"/>
       <c r="J34" s="11"/>
     </row>
-    <row r="35">
+    <row r="35" spans="1:10" ht="12.75" x14ac:dyDescent="0.2">
       <c r="A35" s="11"/>
       <c r="B35" s="11"/>
       <c r="C35" s="11"/>
@@ -1024,20 +1038,21 @@
       <c r="J35" s="11"/>
     </row>
   </sheetData>
-  <drawing r:id="rId1"/>
+  <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>
 </worksheet>
 </file>
 
 <file path=xl/worksheets/sheet2.xml><?xml version="1.0" encoding="utf-8"?>
-<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mx="http://schemas.microsoft.com/office/mac/excel/2008/main" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:mv="urn:schemas-microsoft-com:mac:vml" xmlns:x14="http://schemas.microsoft.com/office/spreadsheetml/2009/9/main" xmlns:x15="http://schemas.microsoft.com/office/spreadsheetml/2010/11/main" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xm="http://schemas.microsoft.com/office/excel/2006/main">
+<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{00000000-0001-0000-0100-000000000000}">
   <sheetPr>
     <outlinePr summaryBelow="0" summaryRight="0"/>
   </sheetPr>
+  <dimension ref="A1"/>
   <sheetViews>
     <sheetView workbookViewId="0"/>
   </sheetViews>
-  <sheetFormatPr customHeight="1" defaultColWidth="14.43" defaultRowHeight="15.75"/>
+  <sheetFormatPr defaultColWidth="14.42578125" defaultRowHeight="15.75" customHeight="1" x14ac:dyDescent="0.2"/>
   <sheetData/>
-  <drawing r:id="rId1"/>
+  <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>
 </worksheet>
 </file>
--- a/SW deliveries log/Project Plan.xlsx
+++ b/SW deliveries log/Project Plan.xlsx
@@ -8,7 +8,7 @@
       <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="C:\Users\Moamen\Desktop\SWE\SW deliveries log\"/>
     </mc:Choice>
   </mc:AlternateContent>
-  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{A10BFBB6-0BBE-4413-9739-6A0B4A303483}" xr6:coauthVersionLast="45" xr6:coauthVersionMax="45" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
+  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{B145A066-C236-40F3-8BB1-BC34E7F61B11}" xr6:coauthVersionLast="45" xr6:coauthVersionMax="45" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
   <bookViews>
     <workbookView xWindow="-120" yWindow="-120" windowWidth="29040" windowHeight="15840" xr2:uid="{00000000-000D-0000-FFFF-FFFF00000000}"/>
   </bookViews>
@@ -16,12 +16,15 @@
     <sheet name="Sheet1" sheetId="1" r:id="rId1"/>
     <sheet name="Sheet2" sheetId="2" r:id="rId2"/>
   </sheets>
+  <definedNames>
+    <definedName name="_Hlk31901373" localSheetId="0">Sheet1!$I$6</definedName>
+  </definedNames>
   <calcPr calcId="0"/>
 </workbook>
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="62" uniqueCount="39">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="68" uniqueCount="41">
   <si>
     <t>Team member</t>
   </si>
@@ -44,9 +47,6 @@
     <t>Describtion and Comments</t>
   </si>
   <si>
-    <t>Review Status</t>
-  </si>
-  <si>
     <t>Reviewer Comments</t>
   </si>
   <si>
@@ -71,9 +71,6 @@
     <t>1 day</t>
   </si>
   <si>
-    <t>Done</t>
-  </si>
-  <si>
     <t>Areej Helal</t>
   </si>
   <si>
@@ -138,13 +135,25 @@
   </si>
   <si>
     <t>update RTM with new CYRS ,SRS ,and HSI requirments</t>
+  </si>
+  <si>
+    <t>Reviewed</t>
+  </si>
+  <si>
+    <t>Req_PO1_DGC_CYRS_009_v1.0 is repeated twice and add reference table</t>
+  </si>
+  <si>
+    <t>Accepted</t>
+  </si>
+  <si>
+    <t>Update the CYRS document with the review comments and update the formating to match the HSI document</t>
   </si>
 </sst>
 </file>
 
 <file path=xl/styles.xml><?xml version="1.0" encoding="utf-8"?>
 <styleSheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:x16r2="http://schemas.microsoft.com/office/spreadsheetml/2015/02/main" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" mc:Ignorable="x14ac x16r2 xr">
-  <fonts count="3" x14ac:knownFonts="1">
+  <fonts count="5" x14ac:knownFonts="1">
     <font>
       <sz val="10"/>
       <color rgb="FF000000"/>
@@ -158,6 +167,17 @@
     <font>
       <sz val="10"/>
       <name val="Arial"/>
+    </font>
+    <font>
+      <sz val="10"/>
+      <color theme="1"/>
+      <name val="Arial"/>
+      <family val="2"/>
+    </font>
+    <font>
+      <sz val="10"/>
+      <name val="Arial"/>
+      <family val="2"/>
     </font>
   </fonts>
   <fills count="3">
@@ -174,7 +194,7 @@
       </patternFill>
     </fill>
   </fills>
-  <borders count="3">
+  <borders count="12">
     <border>
       <left/>
       <right/>
@@ -210,11 +230,122 @@
       </bottom>
       <diagonal/>
     </border>
+    <border>
+      <left style="thin">
+        <color indexed="64"/>
+      </left>
+      <right style="thin">
+        <color indexed="64"/>
+      </right>
+      <top style="thin">
+        <color indexed="64"/>
+      </top>
+      <bottom style="thin">
+        <color indexed="64"/>
+      </bottom>
+      <diagonal/>
+    </border>
+    <border>
+      <left/>
+      <right style="thin">
+        <color indexed="64"/>
+      </right>
+      <top style="thin">
+        <color indexed="64"/>
+      </top>
+      <bottom style="thin">
+        <color indexed="64"/>
+      </bottom>
+      <diagonal/>
+    </border>
+    <border>
+      <left/>
+      <right style="thin">
+        <color rgb="FF000000"/>
+      </right>
+      <top/>
+      <bottom/>
+      <diagonal/>
+    </border>
+    <border>
+      <left style="thin">
+        <color rgb="FF000000"/>
+      </left>
+      <right style="thin">
+        <color rgb="FF000000"/>
+      </right>
+      <top style="thin">
+        <color rgb="FF000000"/>
+      </top>
+      <bottom/>
+      <diagonal/>
+    </border>
+    <border>
+      <left style="thin">
+        <color rgb="FF000000"/>
+      </left>
+      <right/>
+      <top style="thin">
+        <color rgb="FF000000"/>
+      </top>
+      <bottom/>
+      <diagonal/>
+    </border>
+    <border>
+      <left style="thin">
+        <color indexed="64"/>
+      </left>
+      <right style="thin">
+        <color indexed="64"/>
+      </right>
+      <top style="thin">
+        <color indexed="64"/>
+      </top>
+      <bottom/>
+      <diagonal/>
+    </border>
+    <border>
+      <left style="thin">
+        <color rgb="FF000000"/>
+      </left>
+      <right style="thin">
+        <color rgb="FF000000"/>
+      </right>
+      <top/>
+      <bottom style="thin">
+        <color rgb="FF000000"/>
+      </bottom>
+      <diagonal/>
+    </border>
+    <border>
+      <left style="thin">
+        <color rgb="FF000000"/>
+      </left>
+      <right/>
+      <top/>
+      <bottom style="thin">
+        <color rgb="FF000000"/>
+      </bottom>
+      <diagonal/>
+    </border>
+    <border>
+      <left style="thin">
+        <color indexed="64"/>
+      </left>
+      <right style="thin">
+        <color indexed="64"/>
+      </right>
+      <top/>
+      <bottom style="thin">
+        <color indexed="64"/>
+      </bottom>
+      <diagonal/>
+    </border>
   </borders>
   <cellStyleXfs count="1">
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0"/>
   </cellStyleXfs>
-  <cellXfs count="12">
+  <cellXfs count="38">
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0" applyFont="1" applyAlignment="1"/>
     <xf numFmtId="0" fontId="1" fillId="2" borderId="1" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1"/>
     <xf numFmtId="0" fontId="2" fillId="2" borderId="1" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1"/>
@@ -226,19 +357,59 @@
     <xf numFmtId="0" fontId="2" fillId="0" borderId="1" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="left" vertical="top" wrapText="1"/>
     </xf>
-    <xf numFmtId="0" fontId="1" fillId="0" borderId="1" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="left" vertical="top" wrapText="1"/>
-    </xf>
     <xf numFmtId="0" fontId="2" fillId="0" borderId="2" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
       <alignment wrapText="1"/>
     </xf>
     <xf numFmtId="0" fontId="2" fillId="0" borderId="1" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
       <alignment wrapText="1"/>
     </xf>
-    <xf numFmtId="0" fontId="1" fillId="0" borderId="1" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
+    <xf numFmtId="0" fontId="1" fillId="0" borderId="1" xfId="0" applyFont="1" applyBorder="1"/>
+    <xf numFmtId="0" fontId="1" fillId="0" borderId="2" xfId="0" applyFont="1" applyBorder="1"/>
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="3" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1"/>
+    <xf numFmtId="0" fontId="2" fillId="2" borderId="2" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1"/>
+    <xf numFmtId="0" fontId="2" fillId="0" borderId="2" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="left" vertical="top" wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="4" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1"/>
+    <xf numFmtId="0" fontId="4" fillId="2" borderId="5" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1"/>
+    <xf numFmtId="0" fontId="2" fillId="2" borderId="3" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1"/>
+    <xf numFmtId="0" fontId="1" fillId="0" borderId="3" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1"/>
+    <xf numFmtId="0" fontId="3" fillId="0" borderId="3" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="left" vertical="top" wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="2" fillId="0" borderId="3" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
       <alignment wrapText="1"/>
     </xf>
-    <xf numFmtId="0" fontId="1" fillId="0" borderId="1" xfId="0" applyFont="1" applyBorder="1"/>
+    <xf numFmtId="0" fontId="1" fillId="0" borderId="3" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="1" fillId="0" borderId="3" xfId="0" applyFont="1" applyBorder="1"/>
+    <xf numFmtId="0" fontId="3" fillId="0" borderId="1" xfId="0" applyFont="1" applyBorder="1"/>
+    <xf numFmtId="0" fontId="3" fillId="0" borderId="1" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment wrapText="1"/>
+    </xf>
+    <xf numFmtId="14" fontId="1" fillId="0" borderId="1" xfId="0" applyNumberFormat="1" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="left"/>
+    </xf>
+    <xf numFmtId="0" fontId="3" fillId="0" borderId="2" xfId="0" applyFont="1" applyBorder="1"/>
+    <xf numFmtId="0" fontId="4" fillId="0" borderId="2" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="4" fillId="0" borderId="2" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1"/>
+    <xf numFmtId="0" fontId="4" fillId="0" borderId="1" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1"/>
+    <xf numFmtId="0" fontId="3" fillId="0" borderId="1" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1"/>
+    <xf numFmtId="0" fontId="2" fillId="0" borderId="6" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1"/>
+    <xf numFmtId="14" fontId="2" fillId="0" borderId="6" xfId="0" applyNumberFormat="1" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="left"/>
+    </xf>
+    <xf numFmtId="0" fontId="2" fillId="0" borderId="6" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="1" fillId="0" borderId="7" xfId="0" applyFont="1" applyBorder="1"/>
+    <xf numFmtId="0" fontId="1" fillId="0" borderId="8" xfId="0" applyFont="1" applyBorder="1"/>
+    <xf numFmtId="0" fontId="1" fillId="0" borderId="9" xfId="0" applyFont="1" applyBorder="1"/>
+    <xf numFmtId="0" fontId="1" fillId="0" borderId="10" xfId="0" applyFont="1" applyBorder="1"/>
+    <xf numFmtId="0" fontId="1" fillId="0" borderId="11" xfId="0" applyFont="1" applyBorder="1"/>
   </cellXfs>
   <cellStyles count="1">
     <cellStyle name="Normal" xfId="0" builtinId="0"/>
@@ -460,7 +631,7 @@
   <dimension ref="A1:J35"/>
   <sheetViews>
     <sheetView tabSelected="1" workbookViewId="0">
-      <selection activeCell="D21" sqref="D21"/>
+      <selection activeCell="D20" sqref="D20"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultColWidth="14.42578125" defaultRowHeight="15.75" customHeight="1" x14ac:dyDescent="0.2"/>
@@ -473,8 +644,8 @@
     <col min="6" max="6" width="18.140625" customWidth="1"/>
     <col min="7" max="7" width="43" customWidth="1"/>
     <col min="8" max="8" width="18.7109375" customWidth="1"/>
-    <col min="9" max="9" width="20.5703125" customWidth="1"/>
-    <col min="10" max="10" width="18.7109375" customWidth="1"/>
+    <col min="9" max="9" width="35.28515625" customWidth="1"/>
+    <col min="10" max="10" width="0" hidden="1" customWidth="1"/>
   </cols>
   <sheetData>
     <row r="1" spans="1:10" ht="12.75" x14ac:dyDescent="0.2">
@@ -499,129 +670,126 @@
       <c r="G1" s="1" t="s">
         <v>6</v>
       </c>
-      <c r="H1" s="2" t="s">
+      <c r="H1" s="12" t="s">
+        <v>8</v>
+      </c>
+      <c r="I1" s="16" t="s">
         <v>7</v>
-      </c>
-      <c r="I1" s="2" t="s">
-        <v>8</v>
-      </c>
-      <c r="J1" s="2" t="s">
-        <v>9</v>
       </c>
     </row>
     <row r="2" spans="1:10" ht="12.75" x14ac:dyDescent="0.2">
       <c r="A2" s="3" t="s">
+        <v>9</v>
+      </c>
+      <c r="B2" s="3" t="s">
         <v>10</v>
       </c>
-      <c r="B2" s="3" t="s">
+      <c r="C2" s="4" t="s">
         <v>11</v>
       </c>
-      <c r="C2" s="4" t="s">
+      <c r="D2" s="4" t="s">
         <v>12</v>
       </c>
-      <c r="D2" s="4" t="s">
+      <c r="E2" s="4" t="s">
         <v>13</v>
       </c>
-      <c r="E2" s="4" t="s">
+      <c r="F2" s="3" t="s">
         <v>14</v>
       </c>
-      <c r="F2" s="3" t="s">
-        <v>15</v>
-      </c>
       <c r="G2" s="3"/>
-      <c r="H2" s="4"/>
-      <c r="I2" s="4"/>
-      <c r="J2" s="3" t="s">
-        <v>16</v>
-      </c>
+      <c r="H2" s="27" t="s">
+        <v>39</v>
+      </c>
+      <c r="I2" s="17"/>
+      <c r="J2" s="14"/>
     </row>
     <row r="3" spans="1:10" ht="12.75" x14ac:dyDescent="0.2">
       <c r="A3" s="4" t="s">
+        <v>15</v>
+      </c>
+      <c r="B3" s="29" t="s">
+        <v>19</v>
+      </c>
+      <c r="C3" s="4" t="s">
+        <v>11</v>
+      </c>
+      <c r="D3" s="4" t="s">
+        <v>13</v>
+      </c>
+      <c r="E3" s="4" t="s">
         <v>17</v>
       </c>
-      <c r="B3" s="4" t="s">
-        <v>18</v>
-      </c>
-      <c r="C3" s="4" t="s">
-        <v>12</v>
-      </c>
-      <c r="D3" s="4" t="s">
+      <c r="F3" s="3" t="s">
         <v>14</v>
       </c>
-      <c r="E3" s="4" t="s">
-        <v>19</v>
-      </c>
-      <c r="F3" s="3" t="s">
-        <v>15</v>
-      </c>
       <c r="G3" s="3"/>
-      <c r="H3" s="4"/>
-      <c r="I3" s="4"/>
-      <c r="J3" s="3" t="s">
-        <v>16</v>
-      </c>
+      <c r="H3" s="27" t="s">
+        <v>39</v>
+      </c>
+      <c r="I3" s="17"/>
+      <c r="J3" s="14"/>
     </row>
     <row r="4" spans="1:10" ht="12.75" x14ac:dyDescent="0.2">
       <c r="A4" s="3" t="s">
-        <v>20</v>
-      </c>
-      <c r="B4" s="4" t="s">
-        <v>21</v>
+        <v>18</v>
+      </c>
+      <c r="B4" s="29" t="s">
+        <v>16</v>
       </c>
       <c r="C4" s="4" t="s">
-        <v>12</v>
+        <v>11</v>
       </c>
       <c r="D4" s="4" t="s">
+        <v>13</v>
+      </c>
+      <c r="E4" s="4" t="s">
+        <v>17</v>
+      </c>
+      <c r="F4" s="3" t="s">
         <v>14</v>
       </c>
-      <c r="E4" s="4" t="s">
-        <v>19</v>
-      </c>
-      <c r="F4" s="3" t="s">
-        <v>15</v>
-      </c>
       <c r="G4" s="3"/>
-      <c r="H4" s="4"/>
-      <c r="I4" s="4"/>
-      <c r="J4" s="3" t="s">
-        <v>16</v>
-      </c>
+      <c r="H4" s="27" t="s">
+        <v>39</v>
+      </c>
+      <c r="I4" s="17"/>
+      <c r="J4" s="14"/>
     </row>
     <row r="5" spans="1:10" ht="20.25" customHeight="1" x14ac:dyDescent="0.2">
       <c r="A5" s="4" t="s">
+        <v>20</v>
+      </c>
+      <c r="B5" s="4" t="s">
+        <v>21</v>
+      </c>
+      <c r="C5" s="4" t="s">
+        <v>11</v>
+      </c>
+      <c r="D5" s="4" t="s">
+        <v>17</v>
+      </c>
+      <c r="E5" s="4" t="s">
         <v>22</v>
       </c>
-      <c r="B5" s="4" t="s">
-        <v>23</v>
-      </c>
-      <c r="C5" s="4" t="s">
-        <v>12</v>
-      </c>
-      <c r="D5" s="4" t="s">
-        <v>19</v>
-      </c>
-      <c r="E5" s="4" t="s">
-        <v>24</v>
-      </c>
       <c r="F5" s="3" t="s">
-        <v>15</v>
+        <v>14</v>
       </c>
       <c r="G5" s="3"/>
-      <c r="H5" s="4"/>
-      <c r="I5" s="4"/>
-      <c r="J5" s="3" t="s">
-        <v>16</v>
-      </c>
+      <c r="H5" s="27" t="s">
+        <v>39</v>
+      </c>
+      <c r="I5" s="17"/>
+      <c r="J5" s="14"/>
     </row>
     <row r="6" spans="1:10" ht="30" customHeight="1" x14ac:dyDescent="0.2">
       <c r="A6" s="3" t="s">
+        <v>23</v>
+      </c>
+      <c r="B6" s="3" t="s">
+        <v>24</v>
+      </c>
+      <c r="C6" s="3" t="s">
         <v>25</v>
-      </c>
-      <c r="B6" s="3" t="s">
-        <v>26</v>
-      </c>
-      <c r="C6" s="3" t="s">
-        <v>27</v>
       </c>
       <c r="D6" s="5">
         <v>43864</v>
@@ -629,27 +797,29 @@
       <c r="E6" s="5">
         <v>43866</v>
       </c>
-      <c r="F6" s="3" t="s">
-        <v>28</v>
+      <c r="F6" s="28" t="s">
+        <v>26</v>
       </c>
       <c r="G6" s="6" t="s">
-        <v>29</v>
-      </c>
-      <c r="H6" s="6"/>
-      <c r="I6" s="7"/>
-      <c r="J6" s="6" t="s">
-        <v>30</v>
-      </c>
+        <v>27</v>
+      </c>
+      <c r="H6" s="13" t="s">
+        <v>37</v>
+      </c>
+      <c r="I6" s="18" t="s">
+        <v>38</v>
+      </c>
+      <c r="J6" s="15"/>
     </row>
     <row r="7" spans="1:10" ht="25.5" x14ac:dyDescent="0.2">
       <c r="A7" s="3" t="s">
-        <v>17</v>
+        <v>15</v>
       </c>
       <c r="B7" s="3" t="s">
-        <v>31</v>
+        <v>29</v>
       </c>
       <c r="C7" s="3" t="s">
-        <v>27</v>
+        <v>25</v>
       </c>
       <c r="D7" s="5">
         <v>43864</v>
@@ -658,26 +828,26 @@
         <v>43866</v>
       </c>
       <c r="F7" s="3" t="s">
-        <v>28</v>
-      </c>
-      <c r="G7" s="8" t="s">
-        <v>32</v>
-      </c>
-      <c r="H7" s="9"/>
-      <c r="I7" s="9"/>
-      <c r="J7" s="9" t="s">
+        <v>26</v>
+      </c>
+      <c r="G7" s="7" t="s">
         <v>30</v>
       </c>
+      <c r="H7" s="26" t="s">
+        <v>39</v>
+      </c>
+      <c r="I7" s="19"/>
+      <c r="J7" s="14"/>
     </row>
     <row r="8" spans="1:10" ht="30.75" customHeight="1" x14ac:dyDescent="0.2">
       <c r="A8" s="3" t="s">
-        <v>33</v>
+        <v>31</v>
       </c>
       <c r="B8" s="3" t="s">
-        <v>34</v>
+        <v>32</v>
       </c>
       <c r="C8" s="3" t="s">
-        <v>27</v>
+        <v>25</v>
       </c>
       <c r="D8" s="5">
         <v>43866</v>
@@ -686,58 +856,74 @@
         <v>43868</v>
       </c>
       <c r="F8" s="3" t="s">
+        <v>26</v>
+      </c>
+      <c r="G8" s="8" t="s">
+        <v>33</v>
+      </c>
+      <c r="H8" s="7" t="s">
         <v>28</v>
       </c>
-      <c r="G8" s="9" t="s">
+      <c r="I8" s="20"/>
+      <c r="J8" s="14"/>
+    </row>
+    <row r="9" spans="1:10" ht="38.25" x14ac:dyDescent="0.2">
+      <c r="A9" s="22" t="s">
+        <v>9</v>
+      </c>
+      <c r="B9" s="22" t="s">
+        <v>24</v>
+      </c>
+      <c r="C9" s="3" t="s">
+        <v>25</v>
+      </c>
+      <c r="D9" s="24">
+        <v>43867</v>
+      </c>
+      <c r="E9" s="24">
+        <v>43868</v>
+      </c>
+      <c r="F9" s="22" t="s">
+        <v>14</v>
+      </c>
+      <c r="G9" s="23" t="s">
+        <v>40</v>
+      </c>
+      <c r="H9" s="25" t="s">
+        <v>28</v>
+      </c>
+      <c r="I9" s="21"/>
+      <c r="J9" s="14"/>
+    </row>
+    <row r="10" spans="1:10" ht="30" customHeight="1" x14ac:dyDescent="0.2">
+      <c r="A10" s="30" t="s">
+        <v>20</v>
+      </c>
+      <c r="B10" s="30" t="s">
+        <v>34</v>
+      </c>
+      <c r="C10" s="30" t="s">
+        <v>25</v>
+      </c>
+      <c r="D10" s="31">
+        <v>43868</v>
+      </c>
+      <c r="E10" s="31">
+        <v>43868</v>
+      </c>
+      <c r="F10" s="30" t="s">
         <v>35</v>
       </c>
-      <c r="H8" s="9"/>
-      <c r="I8" s="10"/>
-      <c r="J8" s="9" t="s">
-        <v>30</v>
-      </c>
-    </row>
-    <row r="9" spans="1:10" ht="25.5" x14ac:dyDescent="0.2">
-      <c r="A9" s="3" t="s">
-        <v>22</v>
-      </c>
-      <c r="B9" s="3" t="s">
+      <c r="G10" s="32" t="s">
         <v>36</v>
       </c>
-      <c r="C9" s="3" t="s">
-        <v>27</v>
-      </c>
-      <c r="D9" s="5">
-        <v>43868</v>
-      </c>
-      <c r="E9" s="5">
-        <v>43868</v>
-      </c>
-      <c r="F9" s="3" t="s">
-        <v>37</v>
-      </c>
-      <c r="G9" s="9" t="s">
-        <v>38</v>
-      </c>
-      <c r="H9" s="11"/>
-      <c r="I9" s="11"/>
-      <c r="J9" s="11" t="s">
-        <v>30</v>
-      </c>
-    </row>
-    <row r="10" spans="1:10" ht="12.75" x14ac:dyDescent="0.2">
-      <c r="A10" s="11"/>
-      <c r="B10" s="11"/>
-      <c r="C10" s="11"/>
-      <c r="D10" s="11"/>
-      <c r="E10" s="11"/>
-      <c r="F10" s="11"/>
-      <c r="G10" s="11"/>
-      <c r="H10" s="11"/>
-      <c r="I10" s="11"/>
-      <c r="J10" s="11"/>
-    </row>
-    <row r="11" spans="1:10" ht="12.75" x14ac:dyDescent="0.2">
+      <c r="H10" s="33" t="s">
+        <v>28</v>
+      </c>
+      <c r="I10" s="34"/>
+      <c r="J10" s="14"/>
+    </row>
+    <row r="11" spans="1:10" ht="15.75" customHeight="1" x14ac:dyDescent="0.2">
       <c r="A11" s="11"/>
       <c r="B11" s="11"/>
       <c r="C11" s="11"/>
@@ -747,298 +933,298 @@
       <c r="G11" s="11"/>
       <c r="H11" s="11"/>
       <c r="I11" s="11"/>
-      <c r="J11" s="11"/>
     </row>
     <row r="12" spans="1:10" ht="12.75" x14ac:dyDescent="0.2">
-      <c r="A12" s="11"/>
-      <c r="B12" s="11"/>
-      <c r="C12" s="11"/>
-      <c r="D12" s="11"/>
-      <c r="E12" s="11"/>
-      <c r="F12" s="11"/>
-      <c r="G12" s="11"/>
-      <c r="H12" s="11"/>
-      <c r="I12" s="11"/>
-      <c r="J12" s="11"/>
+      <c r="A12" s="35"/>
+      <c r="B12" s="35"/>
+      <c r="C12" s="35"/>
+      <c r="D12" s="35"/>
+      <c r="E12" s="35"/>
+      <c r="F12" s="35"/>
+      <c r="G12" s="35"/>
+      <c r="H12" s="36"/>
+      <c r="I12" s="37"/>
+      <c r="J12" s="14"/>
     </row>
     <row r="13" spans="1:10" ht="12.75" x14ac:dyDescent="0.2">
-      <c r="A13" s="11"/>
-      <c r="B13" s="11"/>
-      <c r="C13" s="11"/>
-      <c r="D13" s="11"/>
-      <c r="E13" s="11"/>
-      <c r="F13" s="11"/>
-      <c r="G13" s="11"/>
-      <c r="H13" s="11"/>
-      <c r="I13" s="11"/>
-      <c r="J13" s="11"/>
+      <c r="A13" s="9"/>
+      <c r="B13" s="9"/>
+      <c r="C13" s="9"/>
+      <c r="D13" s="9"/>
+      <c r="E13" s="9"/>
+      <c r="F13" s="9"/>
+      <c r="G13" s="9"/>
+      <c r="H13" s="10"/>
+      <c r="I13" s="21"/>
+      <c r="J13" s="14"/>
     </row>
     <row r="14" spans="1:10" ht="12.75" x14ac:dyDescent="0.2">
-      <c r="A14" s="11"/>
-      <c r="B14" s="11"/>
-      <c r="C14" s="11"/>
-      <c r="D14" s="11"/>
-      <c r="E14" s="11"/>
-      <c r="F14" s="11"/>
-      <c r="G14" s="11"/>
-      <c r="H14" s="11"/>
-      <c r="I14" s="11"/>
-      <c r="J14" s="11"/>
+      <c r="A14" s="9"/>
+      <c r="B14" s="9"/>
+      <c r="C14" s="9"/>
+      <c r="D14" s="9"/>
+      <c r="E14" s="9"/>
+      <c r="F14" s="9"/>
+      <c r="G14" s="9"/>
+      <c r="H14" s="10"/>
+      <c r="I14" s="21"/>
+      <c r="J14" s="14"/>
     </row>
     <row r="15" spans="1:10" ht="12.75" x14ac:dyDescent="0.2">
-      <c r="A15" s="11"/>
-      <c r="B15" s="11"/>
-      <c r="C15" s="11"/>
-      <c r="D15" s="11"/>
-      <c r="E15" s="11"/>
-      <c r="F15" s="11"/>
-      <c r="G15" s="11"/>
-      <c r="H15" s="11"/>
-      <c r="I15" s="11"/>
-      <c r="J15" s="11"/>
+      <c r="A15" s="9"/>
+      <c r="B15" s="9"/>
+      <c r="C15" s="9"/>
+      <c r="D15" s="9"/>
+      <c r="E15" s="9"/>
+      <c r="F15" s="9"/>
+      <c r="G15" s="9"/>
+      <c r="H15" s="10"/>
+      <c r="I15" s="21"/>
+      <c r="J15" s="14"/>
     </row>
     <row r="16" spans="1:10" ht="12.75" x14ac:dyDescent="0.2">
-      <c r="A16" s="11"/>
-      <c r="B16" s="11"/>
-      <c r="C16" s="11"/>
-      <c r="D16" s="11"/>
-      <c r="E16" s="11"/>
-      <c r="F16" s="11"/>
-      <c r="G16" s="11"/>
-      <c r="H16" s="11"/>
-      <c r="I16" s="11"/>
-      <c r="J16" s="11"/>
+      <c r="A16" s="9"/>
+      <c r="B16" s="9"/>
+      <c r="C16" s="9"/>
+      <c r="D16" s="9"/>
+      <c r="E16" s="9"/>
+      <c r="F16" s="9"/>
+      <c r="G16" s="9"/>
+      <c r="H16" s="10"/>
+      <c r="I16" s="21"/>
+      <c r="J16" s="14"/>
     </row>
     <row r="17" spans="1:10" ht="12.75" x14ac:dyDescent="0.2">
-      <c r="A17" s="11"/>
-      <c r="B17" s="11"/>
-      <c r="C17" s="11"/>
-      <c r="D17" s="11"/>
-      <c r="E17" s="11"/>
-      <c r="F17" s="11"/>
-      <c r="G17" s="11"/>
-      <c r="H17" s="11"/>
-      <c r="I17" s="11"/>
-      <c r="J17" s="11"/>
+      <c r="A17" s="9"/>
+      <c r="B17" s="9"/>
+      <c r="C17" s="9"/>
+      <c r="D17" s="9"/>
+      <c r="E17" s="9"/>
+      <c r="F17" s="9"/>
+      <c r="G17" s="9"/>
+      <c r="H17" s="10"/>
+      <c r="I17" s="21"/>
+      <c r="J17" s="14"/>
     </row>
     <row r="18" spans="1:10" ht="12.75" x14ac:dyDescent="0.2">
-      <c r="A18" s="11"/>
-      <c r="B18" s="11"/>
-      <c r="C18" s="11"/>
-      <c r="D18" s="11"/>
-      <c r="E18" s="11"/>
-      <c r="F18" s="11"/>
-      <c r="G18" s="11"/>
-      <c r="H18" s="11"/>
-      <c r="I18" s="11"/>
-      <c r="J18" s="11"/>
+      <c r="A18" s="9"/>
+      <c r="B18" s="9"/>
+      <c r="C18" s="9"/>
+      <c r="D18" s="9"/>
+      <c r="E18" s="9"/>
+      <c r="F18" s="9"/>
+      <c r="G18" s="9"/>
+      <c r="H18" s="10"/>
+      <c r="I18" s="21"/>
+      <c r="J18" s="14"/>
     </row>
     <row r="19" spans="1:10" ht="12.75" x14ac:dyDescent="0.2">
-      <c r="A19" s="11"/>
-      <c r="B19" s="11"/>
-      <c r="C19" s="11"/>
-      <c r="D19" s="11"/>
-      <c r="E19" s="11"/>
-      <c r="F19" s="11"/>
-      <c r="G19" s="11"/>
-      <c r="H19" s="11"/>
-      <c r="I19" s="11"/>
-      <c r="J19" s="11"/>
+      <c r="A19" s="9"/>
+      <c r="B19" s="9"/>
+      <c r="C19" s="9"/>
+      <c r="D19" s="9"/>
+      <c r="E19" s="9"/>
+      <c r="F19" s="9"/>
+      <c r="G19" s="9"/>
+      <c r="H19" s="10"/>
+      <c r="I19" s="21"/>
+      <c r="J19" s="14"/>
     </row>
     <row r="20" spans="1:10" ht="12.75" x14ac:dyDescent="0.2">
-      <c r="A20" s="11"/>
-      <c r="B20" s="11"/>
-      <c r="C20" s="11"/>
-      <c r="D20" s="11"/>
-      <c r="E20" s="11"/>
-      <c r="F20" s="11"/>
-      <c r="G20" s="11"/>
-      <c r="H20" s="11"/>
-      <c r="I20" s="11"/>
-      <c r="J20" s="11"/>
+      <c r="A20" s="9"/>
+      <c r="B20" s="9"/>
+      <c r="C20" s="9"/>
+      <c r="D20" s="9"/>
+      <c r="E20" s="9"/>
+      <c r="F20" s="9"/>
+      <c r="G20" s="9"/>
+      <c r="H20" s="10"/>
+      <c r="I20" s="21"/>
+      <c r="J20" s="14"/>
     </row>
     <row r="21" spans="1:10" ht="12.75" x14ac:dyDescent="0.2">
-      <c r="A21" s="11"/>
-      <c r="B21" s="11"/>
-      <c r="C21" s="11"/>
-      <c r="D21" s="11"/>
-      <c r="E21" s="11"/>
-      <c r="F21" s="11"/>
-      <c r="G21" s="11"/>
-      <c r="H21" s="11"/>
-      <c r="I21" s="11"/>
-      <c r="J21" s="11"/>
+      <c r="A21" s="9"/>
+      <c r="B21" s="9"/>
+      <c r="C21" s="9"/>
+      <c r="D21" s="9"/>
+      <c r="E21" s="9"/>
+      <c r="F21" s="9"/>
+      <c r="G21" s="9"/>
+      <c r="H21" s="10"/>
+      <c r="I21" s="21"/>
+      <c r="J21" s="14"/>
     </row>
     <row r="22" spans="1:10" ht="12.75" x14ac:dyDescent="0.2">
-      <c r="A22" s="11"/>
-      <c r="B22" s="11"/>
-      <c r="C22" s="11"/>
-      <c r="D22" s="11"/>
-      <c r="E22" s="11"/>
-      <c r="F22" s="11"/>
-      <c r="G22" s="11"/>
-      <c r="H22" s="11"/>
-      <c r="I22" s="11"/>
-      <c r="J22" s="11"/>
+      <c r="A22" s="9"/>
+      <c r="B22" s="9"/>
+      <c r="C22" s="9"/>
+      <c r="D22" s="9"/>
+      <c r="E22" s="9"/>
+      <c r="F22" s="9"/>
+      <c r="G22" s="9"/>
+      <c r="H22" s="10"/>
+      <c r="I22" s="21"/>
+      <c r="J22" s="14"/>
     </row>
     <row r="23" spans="1:10" ht="12.75" x14ac:dyDescent="0.2">
-      <c r="A23" s="11"/>
-      <c r="B23" s="11"/>
-      <c r="C23" s="11"/>
-      <c r="D23" s="11"/>
-      <c r="E23" s="11"/>
-      <c r="F23" s="11"/>
-      <c r="G23" s="11"/>
-      <c r="H23" s="11"/>
-      <c r="I23" s="11"/>
-      <c r="J23" s="11"/>
+      <c r="A23" s="9"/>
+      <c r="B23" s="9"/>
+      <c r="C23" s="9"/>
+      <c r="D23" s="9"/>
+      <c r="E23" s="9"/>
+      <c r="F23" s="9"/>
+      <c r="G23" s="9"/>
+      <c r="H23" s="10"/>
+      <c r="I23" s="21"/>
+      <c r="J23" s="14"/>
     </row>
     <row r="24" spans="1:10" ht="12.75" x14ac:dyDescent="0.2">
-      <c r="A24" s="11"/>
-      <c r="B24" s="11"/>
-      <c r="C24" s="11"/>
-      <c r="D24" s="11"/>
-      <c r="E24" s="11"/>
-      <c r="F24" s="11"/>
-      <c r="G24" s="11"/>
-      <c r="H24" s="11"/>
-      <c r="I24" s="11"/>
-      <c r="J24" s="11"/>
+      <c r="A24" s="9"/>
+      <c r="B24" s="9"/>
+      <c r="C24" s="9"/>
+      <c r="D24" s="9"/>
+      <c r="E24" s="9"/>
+      <c r="F24" s="9"/>
+      <c r="G24" s="9"/>
+      <c r="H24" s="10"/>
+      <c r="I24" s="21"/>
+      <c r="J24" s="14"/>
     </row>
     <row r="25" spans="1:10" ht="12.75" x14ac:dyDescent="0.2">
-      <c r="A25" s="11"/>
-      <c r="B25" s="11"/>
-      <c r="C25" s="11"/>
-      <c r="D25" s="11"/>
-      <c r="E25" s="11"/>
-      <c r="F25" s="11"/>
-      <c r="G25" s="11"/>
-      <c r="H25" s="11"/>
-      <c r="I25" s="11"/>
-      <c r="J25" s="11"/>
+      <c r="A25" s="9"/>
+      <c r="B25" s="9"/>
+      <c r="C25" s="9"/>
+      <c r="D25" s="9"/>
+      <c r="E25" s="9"/>
+      <c r="F25" s="9"/>
+      <c r="G25" s="9"/>
+      <c r="H25" s="10"/>
+      <c r="I25" s="21"/>
+      <c r="J25" s="14"/>
     </row>
     <row r="26" spans="1:10" ht="12.75" x14ac:dyDescent="0.2">
-      <c r="A26" s="11"/>
-      <c r="B26" s="11"/>
-      <c r="C26" s="11"/>
-      <c r="D26" s="11"/>
-      <c r="E26" s="11"/>
-      <c r="F26" s="11"/>
-      <c r="G26" s="11"/>
-      <c r="H26" s="11"/>
-      <c r="I26" s="11"/>
-      <c r="J26" s="11"/>
+      <c r="A26" s="9"/>
+      <c r="B26" s="9"/>
+      <c r="C26" s="9"/>
+      <c r="D26" s="9"/>
+      <c r="E26" s="9"/>
+      <c r="F26" s="9"/>
+      <c r="G26" s="9"/>
+      <c r="H26" s="10"/>
+      <c r="I26" s="21"/>
+      <c r="J26" s="14"/>
     </row>
     <row r="27" spans="1:10" ht="12.75" x14ac:dyDescent="0.2">
-      <c r="A27" s="11"/>
-      <c r="B27" s="11"/>
-      <c r="C27" s="11"/>
-      <c r="D27" s="11"/>
-      <c r="E27" s="11"/>
-      <c r="F27" s="11"/>
-      <c r="G27" s="11"/>
-      <c r="H27" s="11"/>
-      <c r="I27" s="11"/>
-      <c r="J27" s="11"/>
+      <c r="A27" s="9"/>
+      <c r="B27" s="9"/>
+      <c r="C27" s="9"/>
+      <c r="D27" s="9"/>
+      <c r="E27" s="9"/>
+      <c r="F27" s="9"/>
+      <c r="G27" s="9"/>
+      <c r="H27" s="10"/>
+      <c r="I27" s="21"/>
+      <c r="J27" s="14"/>
     </row>
     <row r="28" spans="1:10" ht="12.75" x14ac:dyDescent="0.2">
-      <c r="A28" s="11"/>
-      <c r="B28" s="11"/>
-      <c r="C28" s="11"/>
-      <c r="D28" s="11"/>
-      <c r="E28" s="11"/>
-      <c r="F28" s="11"/>
-      <c r="G28" s="11"/>
-      <c r="H28" s="11"/>
-      <c r="I28" s="11"/>
-      <c r="J28" s="11"/>
+      <c r="A28" s="9"/>
+      <c r="B28" s="9"/>
+      <c r="C28" s="9"/>
+      <c r="D28" s="9"/>
+      <c r="E28" s="9"/>
+      <c r="F28" s="9"/>
+      <c r="G28" s="9"/>
+      <c r="H28" s="10"/>
+      <c r="I28" s="21"/>
+      <c r="J28" s="14"/>
     </row>
     <row r="29" spans="1:10" ht="12.75" x14ac:dyDescent="0.2">
-      <c r="A29" s="11"/>
-      <c r="B29" s="11"/>
-      <c r="C29" s="11"/>
-      <c r="D29" s="11"/>
-      <c r="E29" s="11"/>
-      <c r="F29" s="11"/>
-      <c r="G29" s="11"/>
-      <c r="H29" s="11"/>
-      <c r="I29" s="11"/>
-      <c r="J29" s="11"/>
+      <c r="A29" s="9"/>
+      <c r="B29" s="9"/>
+      <c r="C29" s="9"/>
+      <c r="D29" s="9"/>
+      <c r="E29" s="9"/>
+      <c r="F29" s="9"/>
+      <c r="G29" s="9"/>
+      <c r="H29" s="10"/>
+      <c r="I29" s="21"/>
+      <c r="J29" s="14"/>
     </row>
     <row r="30" spans="1:10" ht="12.75" x14ac:dyDescent="0.2">
-      <c r="A30" s="11"/>
-      <c r="B30" s="11"/>
-      <c r="C30" s="11"/>
-      <c r="D30" s="11"/>
-      <c r="E30" s="11"/>
-      <c r="F30" s="11"/>
-      <c r="G30" s="11"/>
-      <c r="H30" s="11"/>
-      <c r="I30" s="11"/>
-      <c r="J30" s="11"/>
+      <c r="A30" s="9"/>
+      <c r="B30" s="9"/>
+      <c r="C30" s="9"/>
+      <c r="D30" s="9"/>
+      <c r="E30" s="9"/>
+      <c r="F30" s="9"/>
+      <c r="G30" s="9"/>
+      <c r="H30" s="10"/>
+      <c r="I30" s="21"/>
+      <c r="J30" s="14"/>
     </row>
     <row r="31" spans="1:10" ht="12.75" x14ac:dyDescent="0.2">
-      <c r="A31" s="11"/>
-      <c r="B31" s="11"/>
-      <c r="C31" s="11"/>
-      <c r="D31" s="11"/>
-      <c r="E31" s="11"/>
-      <c r="F31" s="11"/>
-      <c r="G31" s="11"/>
-      <c r="H31" s="11"/>
-      <c r="I31" s="11"/>
-      <c r="J31" s="11"/>
+      <c r="A31" s="9"/>
+      <c r="B31" s="9"/>
+      <c r="C31" s="9"/>
+      <c r="D31" s="9"/>
+      <c r="E31" s="9"/>
+      <c r="F31" s="9"/>
+      <c r="G31" s="9"/>
+      <c r="H31" s="10"/>
+      <c r="I31" s="21"/>
+      <c r="J31" s="14"/>
     </row>
     <row r="32" spans="1:10" ht="12.75" x14ac:dyDescent="0.2">
-      <c r="A32" s="11"/>
-      <c r="B32" s="11"/>
-      <c r="C32" s="11"/>
-      <c r="D32" s="11"/>
-      <c r="E32" s="11"/>
-      <c r="F32" s="11"/>
-      <c r="G32" s="11"/>
-      <c r="H32" s="11"/>
-      <c r="I32" s="11"/>
-      <c r="J32" s="11"/>
+      <c r="A32" s="9"/>
+      <c r="B32" s="9"/>
+      <c r="C32" s="9"/>
+      <c r="D32" s="9"/>
+      <c r="E32" s="9"/>
+      <c r="F32" s="9"/>
+      <c r="G32" s="9"/>
+      <c r="H32" s="10"/>
+      <c r="I32" s="21"/>
+      <c r="J32" s="14"/>
     </row>
     <row r="33" spans="1:10" ht="12.75" x14ac:dyDescent="0.2">
-      <c r="A33" s="11"/>
-      <c r="B33" s="11"/>
-      <c r="C33" s="11"/>
-      <c r="D33" s="11"/>
-      <c r="E33" s="11"/>
-      <c r="F33" s="11"/>
-      <c r="G33" s="11"/>
-      <c r="H33" s="11"/>
-      <c r="I33" s="11"/>
-      <c r="J33" s="11"/>
+      <c r="A33" s="9"/>
+      <c r="B33" s="9"/>
+      <c r="C33" s="9"/>
+      <c r="D33" s="9"/>
+      <c r="E33" s="9"/>
+      <c r="F33" s="9"/>
+      <c r="G33" s="9"/>
+      <c r="H33" s="10"/>
+      <c r="I33" s="21"/>
+      <c r="J33" s="14"/>
     </row>
     <row r="34" spans="1:10" ht="12.75" x14ac:dyDescent="0.2">
-      <c r="A34" s="11"/>
-      <c r="B34" s="11"/>
-      <c r="C34" s="11"/>
-      <c r="D34" s="11"/>
-      <c r="E34" s="11"/>
-      <c r="F34" s="11"/>
-      <c r="G34" s="11"/>
-      <c r="H34" s="11"/>
-      <c r="I34" s="11"/>
-      <c r="J34" s="11"/>
+      <c r="A34" s="9"/>
+      <c r="B34" s="9"/>
+      <c r="C34" s="9"/>
+      <c r="D34" s="9"/>
+      <c r="E34" s="9"/>
+      <c r="F34" s="9"/>
+      <c r="G34" s="9"/>
+      <c r="H34" s="10"/>
+      <c r="I34" s="21"/>
+      <c r="J34" s="14"/>
     </row>
     <row r="35" spans="1:10" ht="12.75" x14ac:dyDescent="0.2">
-      <c r="A35" s="11"/>
-      <c r="B35" s="11"/>
-      <c r="C35" s="11"/>
-      <c r="D35" s="11"/>
-      <c r="E35" s="11"/>
-      <c r="F35" s="11"/>
-      <c r="G35" s="11"/>
-      <c r="H35" s="11"/>
-      <c r="I35" s="11"/>
-      <c r="J35" s="11"/>
+      <c r="A35" s="9"/>
+      <c r="B35" s="9"/>
+      <c r="C35" s="9"/>
+      <c r="D35" s="9"/>
+      <c r="E35" s="9"/>
+      <c r="F35" s="9"/>
+      <c r="G35" s="9"/>
+      <c r="H35" s="10"/>
+      <c r="I35" s="21"/>
+      <c r="J35" s="14"/>
     </row>
   </sheetData>
   <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>
+  <pageSetup orientation="portrait" horizontalDpi="300" verticalDpi="300" r:id="rId1"/>
 </worksheet>
 </file>
 

--- a/SW deliveries log/Project Plan.xlsx
+++ b/SW deliveries log/Project Plan.xlsx
@@ -8,7 +8,7 @@
       <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="C:\Users\Moamen\Desktop\SWE\SW deliveries log\"/>
     </mc:Choice>
   </mc:AlternateContent>
-  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{BE4B49B2-6D75-4E61-985D-C3259B2BF0B8}" xr6:coauthVersionLast="45" xr6:coauthVersionMax="45" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
+  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{0F68AFD8-B21C-4CDA-8F4E-DC8ABE58C9AA}" xr6:coauthVersionLast="45" xr6:coauthVersionMax="45" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
   <bookViews>
     <workbookView xWindow="-120" yWindow="-120" windowWidth="29040" windowHeight="15840" xr2:uid="{00000000-000D-0000-FFFF-FFFF00000000}"/>
   </bookViews>
@@ -24,7 +24,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="92" uniqueCount="49">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="98" uniqueCount="54">
   <si>
     <t>Team member</t>
   </si>
@@ -171,6 +171,21 @@
   </si>
   <si>
     <t>Review SRS document and make sure it follows the review document and guidlines</t>
+  </si>
+  <si>
+    <t>Mina Yousry</t>
+  </si>
+  <si>
+    <t>Minor updates to SRS document</t>
+  </si>
+  <si>
+    <t>10 mins</t>
+  </si>
+  <si>
+    <t>Remove document status and add status table</t>
+  </si>
+  <si>
+    <t>Pending</t>
   </si>
 </sst>
 </file>
@@ -580,7 +595,7 @@
   <dimension ref="A1:J1002"/>
   <sheetViews>
     <sheetView tabSelected="1" workbookViewId="0">
-      <selection activeCell="H21" sqref="H21"/>
+      <selection activeCell="H16" sqref="H16"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultColWidth="14.42578125" defaultRowHeight="15" customHeight="1" x14ac:dyDescent="0.2"/>
@@ -982,14 +997,30 @@
       <c r="J14" s="5"/>
     </row>
     <row r="15" spans="1:10" ht="15.75" customHeight="1" x14ac:dyDescent="0.2">
-      <c r="A15" s="3"/>
-      <c r="B15" s="3"/>
-      <c r="C15" s="3"/>
-      <c r="D15" s="3"/>
-      <c r="E15" s="3"/>
-      <c r="F15" s="3"/>
-      <c r="G15" s="3"/>
-      <c r="H15" s="27"/>
+      <c r="A15" s="3" t="s">
+        <v>49</v>
+      </c>
+      <c r="B15" s="3" t="s">
+        <v>50</v>
+      </c>
+      <c r="C15" s="20" t="s">
+        <v>26</v>
+      </c>
+      <c r="D15" s="6">
+        <v>43869</v>
+      </c>
+      <c r="E15" s="6">
+        <v>43869</v>
+      </c>
+      <c r="F15" s="3" t="s">
+        <v>51</v>
+      </c>
+      <c r="G15" s="3" t="s">
+        <v>52</v>
+      </c>
+      <c r="H15" s="27" t="s">
+        <v>53</v>
+      </c>
       <c r="I15" s="3"/>
       <c r="J15" s="5"/>
     </row>

--- a/SW deliveries log/Project Plan.xlsx
+++ b/SW deliveries log/Project Plan.xlsx
@@ -14,7 +14,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="104" uniqueCount="56">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="105" uniqueCount="56">
   <si>
     <t>Team member</t>
   </si>
@@ -175,20 +175,33 @@
     <t>Remove document status and add status table</t>
   </si>
   <si>
-    <t>Pending</t>
-  </si>
-  <si>
     <t>3 days</t>
   </si>
   <si>
     <t>Update the SRS document according the presentation provided and the SRS review sheet</t>
+  </si>
+  <si>
+    <t>Split Req_PO1_DGC_SRS_002_v1.1 and Req_PO1_DGC_SRS_003_v1.1 tables
+Add SRS context diagram
+Add testing scope ITD or VTD
+Req_PO1_DGC_SRS_003_v1.1
+Req_PO1_DGC_SRS_006_v1.1
+Req_PO1_DGC_SRS_009_v1.1
+Req_PO1_DGC_SRS_0013_v1.1
+Clarify the shall display which data on the LCD
+Req_PO1_DGC_SRS_0019_v1.1
+Remove variable write number instead
+Req_PO1_DGC_SRS_0020_v1.1
+remove cast write display instead
+Req_PO1_DGC_SRS_0023_v1.1
+time is 15 seconds</t>
   </si>
 </sst>
 </file>
 
 <file path=xl/styles.xml><?xml version="1.0" encoding="utf-8"?>
 <styleSheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006">
-  <fonts count="3">
+  <fonts count="2">
     <font>
       <sz val="10.0"/>
       <color rgb="FF000000"/>
@@ -197,10 +210,6 @@
     <font>
       <sz val="10.0"/>
       <color theme="1"/>
-      <name val="Arial"/>
-    </font>
-    <font>
-      <sz val="10.0"/>
       <name val="Arial"/>
     </font>
   </fonts>
@@ -302,7 +311,7 @@
   <cellStyleXfs count="1">
     <xf borderId="0" fillId="0" fontId="0" numFmtId="0" applyAlignment="1" applyFont="1"/>
   </cellStyleXfs>
-  <cellXfs count="27">
+  <cellXfs count="25">
     <xf borderId="0" fillId="0" fontId="0" numFmtId="0" xfId="0" applyAlignment="1" applyFont="1">
       <alignment readingOrder="0" shrinkToFit="0" vertical="bottom" wrapText="0"/>
     </xf>
@@ -347,18 +356,14 @@
       <alignment shrinkToFit="0" wrapText="1"/>
     </xf>
     <xf borderId="7" fillId="0" fontId="1" numFmtId="0" xfId="0" applyBorder="1" applyFont="1"/>
-    <xf borderId="1" fillId="0" fontId="0" numFmtId="0" xfId="0" applyAlignment="1" applyBorder="1" applyFont="1">
+    <xf borderId="3" fillId="0" fontId="0" numFmtId="0" xfId="0" applyAlignment="1" applyBorder="1" applyFont="1">
       <alignment readingOrder="0"/>
     </xf>
-    <xf borderId="1" fillId="0" fontId="2" numFmtId="0" xfId="0" applyBorder="1" applyFont="1"/>
     <xf borderId="1" fillId="0" fontId="0" numFmtId="14" xfId="0" applyAlignment="1" applyBorder="1" applyFont="1" applyNumberFormat="1">
-      <alignment horizontal="left" readingOrder="0"/>
+      <alignment horizontal="left"/>
     </xf>
     <xf borderId="1" fillId="0" fontId="0" numFmtId="0" xfId="0" applyAlignment="1" applyBorder="1" applyFont="1">
-      <alignment readingOrder="0" shrinkToFit="0" wrapText="1"/>
-    </xf>
-    <xf borderId="3" fillId="0" fontId="0" numFmtId="0" xfId="0" applyAlignment="1" applyBorder="1" applyFont="1">
-      <alignment readingOrder="0"/>
+      <alignment readingOrder="0" shrinkToFit="0" vertical="top" wrapText="1"/>
     </xf>
   </cellXfs>
   <cellStyles count="1">
@@ -589,7 +594,7 @@
     <col customWidth="1" min="6" max="6" width="18.14"/>
     <col customWidth="1" min="7" max="7" width="43.0"/>
     <col customWidth="1" min="8" max="8" width="18.71"/>
-    <col customWidth="1" min="9" max="9" width="35.29"/>
+    <col customWidth="1" min="9" max="9" width="57.71"/>
     <col customWidth="1" hidden="1" min="10" max="10" width="14.43"/>
   </cols>
   <sheetData>
@@ -999,38 +1004,40 @@
       <c r="G15" s="3" t="s">
         <v>52</v>
       </c>
-      <c r="H15" s="4" t="s">
-        <v>53</v>
+      <c r="H15" s="22" t="s">
+        <v>15</v>
       </c>
       <c r="I15" s="3"/>
       <c r="J15" s="5"/>
     </row>
-    <row r="16" ht="27.0" customHeight="1">
-      <c r="A16" s="22" t="s">
+    <row r="16" ht="259.5" customHeight="1">
+      <c r="A16" s="17" t="s">
         <v>33</v>
       </c>
-      <c r="B16" s="22" t="s">
+      <c r="B16" s="17" t="s">
         <v>34</v>
       </c>
-      <c r="C16" s="23" t="s">
+      <c r="C16" s="3" t="s">
         <v>26</v>
       </c>
-      <c r="D16" s="24">
+      <c r="D16" s="23">
         <v>43879.0</v>
       </c>
-      <c r="E16" s="24">
+      <c r="E16" s="23">
         <v>43881.0</v>
       </c>
-      <c r="F16" s="22" t="s">
+      <c r="F16" s="17" t="s">
+        <v>53</v>
+      </c>
+      <c r="G16" s="18" t="s">
         <v>54</v>
       </c>
-      <c r="G16" s="25" t="s">
+      <c r="H16" s="22" t="s">
+        <v>29</v>
+      </c>
+      <c r="I16" s="24" t="s">
         <v>55</v>
       </c>
-      <c r="H16" s="26" t="s">
-        <v>53</v>
-      </c>
-      <c r="I16" s="3"/>
       <c r="J16" s="5"/>
     </row>
     <row r="17" ht="15.75" customHeight="1">

--- a/SW deliveries log/Project Plan.xlsx
+++ b/SW deliveries log/Project Plan.xlsx
@@ -14,7 +14,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="105" uniqueCount="56">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="111" uniqueCount="57">
   <si>
     <t>Team member</t>
   </si>
@@ -173,9 +173,6 @@
   </si>
   <si>
     <t>Remove document status and add status table</t>
-  </si>
-  <si>
-    <t>3 days</t>
   </si>
   <si>
     <t>Update the SRS document according the presentation provided and the SRS review sheet</t>
@@ -196,12 +193,18 @@
 Req_PO1_DGC_SRS_0023_v1.1
 time is 15 seconds</t>
   </si>
+  <si>
+    <t>Update SRS document according to previous review</t>
+  </si>
+  <si>
+    <t>Pending</t>
+  </si>
 </sst>
 </file>
 
 <file path=xl/styles.xml><?xml version="1.0" encoding="utf-8"?>
 <styleSheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006">
-  <fonts count="2">
+  <fonts count="3">
     <font>
       <sz val="10.0"/>
       <color rgb="FF000000"/>
@@ -210,6 +213,10 @@
     <font>
       <sz val="10.0"/>
       <color theme="1"/>
+      <name val="Arial"/>
+    </font>
+    <font>
+      <sz val="10.0"/>
       <name val="Arial"/>
     </font>
   </fonts>
@@ -311,7 +318,7 @@
   <cellStyleXfs count="1">
     <xf borderId="0" fillId="0" fontId="0" numFmtId="0" applyAlignment="1" applyFont="1"/>
   </cellStyleXfs>
-  <cellXfs count="25">
+  <cellXfs count="29">
     <xf borderId="0" fillId="0" fontId="0" numFmtId="0" xfId="0" applyAlignment="1" applyFont="1">
       <alignment readingOrder="0" shrinkToFit="0" vertical="bottom" wrapText="0"/>
     </xf>
@@ -363,7 +370,17 @@
       <alignment horizontal="left"/>
     </xf>
     <xf borderId="1" fillId="0" fontId="0" numFmtId="0" xfId="0" applyAlignment="1" applyBorder="1" applyFont="1">
+      <alignment readingOrder="0"/>
+    </xf>
+    <xf borderId="1" fillId="0" fontId="0" numFmtId="0" xfId="0" applyAlignment="1" applyBorder="1" applyFont="1">
       <alignment readingOrder="0" shrinkToFit="0" vertical="top" wrapText="1"/>
+    </xf>
+    <xf borderId="1" fillId="0" fontId="2" numFmtId="0" xfId="0" applyBorder="1" applyFont="1"/>
+    <xf borderId="1" fillId="0" fontId="0" numFmtId="14" xfId="0" applyAlignment="1" applyBorder="1" applyFont="1" applyNumberFormat="1">
+      <alignment horizontal="left" readingOrder="0"/>
+    </xf>
+    <xf borderId="1" fillId="0" fontId="0" numFmtId="0" xfId="0" applyAlignment="1" applyBorder="1" applyFont="1">
+      <alignment readingOrder="0" shrinkToFit="0" wrapText="1"/>
     </xf>
   </cellXfs>
   <cellStyles count="1">
@@ -1026,29 +1043,45 @@
       <c r="E16" s="23">
         <v>43881.0</v>
       </c>
-      <c r="F16" s="17" t="s">
+      <c r="F16" s="24" t="s">
+        <v>27</v>
+      </c>
+      <c r="G16" s="18" t="s">
         <v>53</v>
-      </c>
-      <c r="G16" s="18" t="s">
-        <v>54</v>
       </c>
       <c r="H16" s="22" t="s">
         <v>29</v>
       </c>
-      <c r="I16" s="24" t="s">
+      <c r="I16" s="25" t="s">
+        <v>54</v>
+      </c>
+      <c r="J16" s="5"/>
+    </row>
+    <row r="17" ht="27.75" customHeight="1">
+      <c r="A17" s="24" t="s">
+        <v>33</v>
+      </c>
+      <c r="B17" s="24" t="s">
+        <v>34</v>
+      </c>
+      <c r="C17" s="26" t="s">
+        <v>26</v>
+      </c>
+      <c r="D17" s="27">
+        <v>43880.0</v>
+      </c>
+      <c r="E17" s="23">
+        <v>43881.0</v>
+      </c>
+      <c r="F17" s="24" t="s">
+        <v>14</v>
+      </c>
+      <c r="G17" s="28" t="s">
         <v>55</v>
       </c>
-      <c r="J16" s="5"/>
-    </row>
-    <row r="17" ht="15.75" customHeight="1">
-      <c r="A17" s="3"/>
-      <c r="B17" s="3"/>
-      <c r="C17" s="3"/>
-      <c r="D17" s="3"/>
-      <c r="E17" s="3"/>
-      <c r="F17" s="3"/>
-      <c r="G17" s="3"/>
-      <c r="H17" s="4"/>
+      <c r="H17" s="22" t="s">
+        <v>56</v>
+      </c>
       <c r="I17" s="3"/>
       <c r="J17" s="5"/>
     </row>

--- a/SW deliveries log/Project Plan.xlsx
+++ b/SW deliveries log/Project Plan.xlsx
@@ -14,7 +14,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="111" uniqueCount="57">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="138" uniqueCount="63">
   <si>
     <t>Team member</t>
   </si>
@@ -197,7 +197,25 @@
     <t>Update SRS document according to previous review</t>
   </si>
   <si>
+    <t>Update SRS document according to SRS review sheet</t>
+  </si>
+  <si>
     <t>Pending</t>
+  </si>
+  <si>
+    <t>Create GDD document and layered architecture</t>
+  </si>
+  <si>
+    <t>Initial creation of GDD document and initial layered architecture</t>
+  </si>
+  <si>
+    <t>Create APIs for the Application layer</t>
+  </si>
+  <si>
+    <t>Create APIs for the HAL layer</t>
+  </si>
+  <si>
+    <t>Create APIs for the MCAL layer</t>
   </si>
 </sst>
 </file>
@@ -318,7 +336,7 @@
   <cellStyleXfs count="1">
     <xf borderId="0" fillId="0" fontId="0" numFmtId="0" applyAlignment="1" applyFont="1"/>
   </cellStyleXfs>
-  <cellXfs count="29">
+  <cellXfs count="30">
     <xf borderId="0" fillId="0" fontId="0" numFmtId="0" xfId="0" applyAlignment="1" applyFont="1">
       <alignment readingOrder="0" shrinkToFit="0" vertical="bottom" wrapText="0"/>
     </xf>
@@ -363,17 +381,18 @@
       <alignment shrinkToFit="0" wrapText="1"/>
     </xf>
     <xf borderId="7" fillId="0" fontId="1" numFmtId="0" xfId="0" applyBorder="1" applyFont="1"/>
-    <xf borderId="3" fillId="0" fontId="0" numFmtId="0" xfId="0" applyAlignment="1" applyBorder="1" applyFont="1">
-      <alignment readingOrder="0"/>
-    </xf>
+    <xf borderId="3" fillId="0" fontId="0" numFmtId="0" xfId="0" applyBorder="1" applyFont="1"/>
     <xf borderId="1" fillId="0" fontId="0" numFmtId="14" xfId="0" applyAlignment="1" applyBorder="1" applyFont="1" applyNumberFormat="1">
       <alignment horizontal="left"/>
     </xf>
     <xf borderId="1" fillId="0" fontId="0" numFmtId="0" xfId="0" applyAlignment="1" applyBorder="1" applyFont="1">
+      <alignment shrinkToFit="0" vertical="top" wrapText="1"/>
+    </xf>
+    <xf borderId="3" fillId="0" fontId="0" numFmtId="0" xfId="0" applyAlignment="1" applyBorder="1" applyFont="1">
       <alignment readingOrder="0"/>
     </xf>
     <xf borderId="1" fillId="0" fontId="0" numFmtId="0" xfId="0" applyAlignment="1" applyBorder="1" applyFont="1">
-      <alignment readingOrder="0" shrinkToFit="0" vertical="top" wrapText="1"/>
+      <alignment readingOrder="0"/>
     </xf>
     <xf borderId="1" fillId="0" fontId="2" numFmtId="0" xfId="0" applyBorder="1" applyFont="1"/>
     <xf borderId="1" fillId="0" fontId="0" numFmtId="14" xfId="0" applyAlignment="1" applyBorder="1" applyFont="1" applyNumberFormat="1">
@@ -609,7 +628,7 @@
     <col customWidth="1" min="4" max="4" width="16.14"/>
     <col customWidth="1" min="5" max="5" width="20.57"/>
     <col customWidth="1" min="6" max="6" width="18.14"/>
-    <col customWidth="1" min="7" max="7" width="43.0"/>
+    <col customWidth="1" min="7" max="7" width="46.57"/>
     <col customWidth="1" min="8" max="8" width="18.71"/>
     <col customWidth="1" min="9" max="9" width="57.71"/>
     <col customWidth="1" hidden="1" min="10" max="10" width="14.43"/>
@@ -1043,7 +1062,7 @@
       <c r="E16" s="23">
         <v>43881.0</v>
       </c>
-      <c r="F16" s="24" t="s">
+      <c r="F16" s="17" t="s">
         <v>27</v>
       </c>
       <c r="G16" s="18" t="s">
@@ -1052,96 +1071,170 @@
       <c r="H16" s="22" t="s">
         <v>29</v>
       </c>
-      <c r="I16" s="25" t="s">
+      <c r="I16" s="24" t="s">
         <v>54</v>
       </c>
       <c r="J16" s="5"/>
     </row>
     <row r="17" ht="27.75" customHeight="1">
-      <c r="A17" s="24" t="s">
+      <c r="A17" s="17" t="s">
         <v>33</v>
       </c>
-      <c r="B17" s="24" t="s">
+      <c r="B17" s="17" t="s">
         <v>34</v>
       </c>
-      <c r="C17" s="26" t="s">
+      <c r="C17" s="3" t="s">
         <v>26</v>
       </c>
-      <c r="D17" s="27">
+      <c r="D17" s="23">
         <v>43880.0</v>
       </c>
       <c r="E17" s="23">
         <v>43881.0</v>
       </c>
-      <c r="F17" s="24" t="s">
+      <c r="F17" s="17" t="s">
         <v>14</v>
       </c>
-      <c r="G17" s="28" t="s">
+      <c r="G17" s="18" t="s">
         <v>55</v>
       </c>
-      <c r="H17" s="22" t="s">
-        <v>56</v>
+      <c r="H17" s="25" t="s">
+        <v>15</v>
       </c>
       <c r="I17" s="3"/>
       <c r="J17" s="5"/>
     </row>
     <row r="18" ht="15.75" customHeight="1">
-      <c r="A18" s="3"/>
-      <c r="B18" s="3"/>
-      <c r="C18" s="3"/>
-      <c r="D18" s="3"/>
-      <c r="E18" s="3"/>
-      <c r="F18" s="3"/>
-      <c r="G18" s="3"/>
-      <c r="H18" s="4"/>
+      <c r="A18" s="26" t="s">
+        <v>49</v>
+      </c>
+      <c r="B18" s="26" t="s">
+        <v>34</v>
+      </c>
+      <c r="C18" s="27" t="s">
+        <v>26</v>
+      </c>
+      <c r="D18" s="28">
+        <v>43886.0</v>
+      </c>
+      <c r="E18" s="28">
+        <v>43887.0</v>
+      </c>
+      <c r="F18" s="17" t="s">
+        <v>14</v>
+      </c>
+      <c r="G18" s="26" t="s">
+        <v>56</v>
+      </c>
+      <c r="H18" s="25" t="s">
+        <v>57</v>
+      </c>
       <c r="I18" s="3"/>
       <c r="J18" s="5"/>
     </row>
-    <row r="19" ht="15.75" customHeight="1">
-      <c r="A19" s="3"/>
-      <c r="B19" s="3"/>
-      <c r="C19" s="3"/>
-      <c r="D19" s="3"/>
-      <c r="E19" s="3"/>
-      <c r="F19" s="3"/>
-      <c r="G19" s="3"/>
-      <c r="H19" s="4"/>
+    <row r="19" ht="33.0" customHeight="1">
+      <c r="A19" s="26" t="s">
+        <v>9</v>
+      </c>
+      <c r="B19" s="29" t="s">
+        <v>58</v>
+      </c>
+      <c r="C19" s="27" t="s">
+        <v>26</v>
+      </c>
+      <c r="D19" s="28">
+        <v>43886.0</v>
+      </c>
+      <c r="E19" s="28">
+        <v>43888.0</v>
+      </c>
+      <c r="F19" s="26" t="s">
+        <v>27</v>
+      </c>
+      <c r="G19" s="29" t="s">
+        <v>59</v>
+      </c>
+      <c r="H19" s="25" t="s">
+        <v>57</v>
+      </c>
       <c r="I19" s="3"/>
       <c r="J19" s="5"/>
     </row>
     <row r="20" ht="15.75" customHeight="1">
-      <c r="A20" s="3"/>
-      <c r="B20" s="3"/>
-      <c r="C20" s="3"/>
-      <c r="D20" s="3"/>
-      <c r="E20" s="3"/>
-      <c r="F20" s="3"/>
+      <c r="A20" s="26" t="s">
+        <v>16</v>
+      </c>
+      <c r="B20" s="26" t="s">
+        <v>60</v>
+      </c>
+      <c r="C20" s="27" t="s">
+        <v>26</v>
+      </c>
+      <c r="D20" s="28">
+        <v>43886.0</v>
+      </c>
+      <c r="E20" s="28">
+        <v>43888.0</v>
+      </c>
+      <c r="F20" s="26" t="s">
+        <v>27</v>
+      </c>
       <c r="G20" s="3"/>
-      <c r="H20" s="4"/>
+      <c r="H20" s="25" t="s">
+        <v>57</v>
+      </c>
       <c r="I20" s="3"/>
       <c r="J20" s="5"/>
     </row>
     <row r="21" ht="15.75" customHeight="1">
-      <c r="A21" s="3"/>
-      <c r="B21" s="3"/>
-      <c r="C21" s="3"/>
-      <c r="D21" s="3"/>
-      <c r="E21" s="3"/>
-      <c r="F21" s="3"/>
+      <c r="A21" s="26" t="s">
+        <v>49</v>
+      </c>
+      <c r="B21" s="26" t="s">
+        <v>61</v>
+      </c>
+      <c r="C21" s="27" t="s">
+        <v>26</v>
+      </c>
+      <c r="D21" s="28">
+        <v>43886.0</v>
+      </c>
+      <c r="E21" s="28">
+        <v>43888.0</v>
+      </c>
+      <c r="F21" s="26" t="s">
+        <v>27</v>
+      </c>
       <c r="G21" s="3"/>
-      <c r="H21" s="4"/>
+      <c r="H21" s="25" t="s">
+        <v>57</v>
+      </c>
       <c r="I21" s="3"/>
       <c r="J21" s="5"/>
     </row>
     <row r="22" ht="15.75" customHeight="1">
-      <c r="A22" s="3"/>
-      <c r="B22" s="3"/>
-      <c r="C22" s="3"/>
-      <c r="D22" s="3"/>
-      <c r="E22" s="3"/>
-      <c r="F22" s="3"/>
+      <c r="A22" s="26" t="s">
+        <v>46</v>
+      </c>
+      <c r="B22" s="26" t="s">
+        <v>62</v>
+      </c>
+      <c r="C22" s="27" t="s">
+        <v>26</v>
+      </c>
+      <c r="D22" s="28">
+        <v>43886.0</v>
+      </c>
+      <c r="E22" s="28">
+        <v>43888.0</v>
+      </c>
+      <c r="F22" s="26" t="s">
+        <v>27</v>
+      </c>
       <c r="G22" s="3"/>
-      <c r="H22" s="4"/>
+      <c r="H22" s="25" t="s">
+        <v>57</v>
+      </c>
       <c r="I22" s="3"/>
       <c r="J22" s="5"/>
     </row>

--- a/SW deliveries log/Project Plan.xlsx
+++ b/SW deliveries log/Project Plan.xlsx
@@ -1188,7 +1188,7 @@
     </row>
     <row r="21" ht="15.75" customHeight="1">
       <c r="A21" s="26" t="s">
-        <v>49</v>
+        <v>21</v>
       </c>
       <c r="B21" s="26" t="s">
         <v>61</v>

--- a/SW deliveries log/Project Plan.xlsx
+++ b/SW deliveries log/Project Plan.xlsx
@@ -14,7 +14,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="138" uniqueCount="63">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="163" uniqueCount="67">
   <si>
     <t>Team member</t>
   </si>
@@ -200,22 +200,34 @@
     <t>Update SRS document according to SRS review sheet</t>
   </si>
   <si>
+    <t>Create GDD document and layered architecture</t>
+  </si>
+  <si>
+    <t>Initial creation of GDD document and initial layered architecture</t>
+  </si>
+  <si>
+    <t>Create APIs for the Application layer</t>
+  </si>
+  <si>
+    <t>Create APIs for the HAL layer</t>
+  </si>
+  <si>
+    <t>Create APIs for the MCAL layer</t>
+  </si>
+  <si>
+    <t>Update GDD requirements</t>
+  </si>
+  <si>
+    <t>Update input and output signals</t>
+  </si>
+  <si>
     <t>Pending</t>
   </si>
   <si>
-    <t>Create GDD document and layered architecture</t>
-  </si>
-  <si>
-    <t>Initial creation of GDD document and initial layered architecture</t>
-  </si>
-  <si>
-    <t>Create APIs for the Application layer</t>
-  </si>
-  <si>
-    <t>Create APIs for the HAL layer</t>
-  </si>
-  <si>
-    <t>Create APIs for the MCAL layer</t>
+    <t>Create CDD for Buzzer</t>
+  </si>
+  <si>
+    <t>Create CDD for DIO</t>
   </si>
 </sst>
 </file>
@@ -336,7 +348,7 @@
   <cellStyleXfs count="1">
     <xf borderId="0" fillId="0" fontId="0" numFmtId="0" applyAlignment="1" applyFont="1"/>
   </cellStyleXfs>
-  <cellXfs count="30">
+  <cellXfs count="29">
     <xf borderId="0" fillId="0" fontId="0" numFmtId="0" xfId="0" applyAlignment="1" applyFont="1">
       <alignment readingOrder="0" shrinkToFit="0" vertical="bottom" wrapText="0"/>
     </xf>
@@ -388,9 +400,6 @@
     <xf borderId="1" fillId="0" fontId="0" numFmtId="0" xfId="0" applyAlignment="1" applyBorder="1" applyFont="1">
       <alignment shrinkToFit="0" vertical="top" wrapText="1"/>
     </xf>
-    <xf borderId="3" fillId="0" fontId="0" numFmtId="0" xfId="0" applyAlignment="1" applyBorder="1" applyFont="1">
-      <alignment readingOrder="0"/>
-    </xf>
     <xf borderId="1" fillId="0" fontId="0" numFmtId="0" xfId="0" applyAlignment="1" applyBorder="1" applyFont="1">
       <alignment readingOrder="0"/>
     </xf>
@@ -398,8 +407,8 @@
     <xf borderId="1" fillId="0" fontId="0" numFmtId="14" xfId="0" applyAlignment="1" applyBorder="1" applyFont="1" applyNumberFormat="1">
       <alignment horizontal="left" readingOrder="0"/>
     </xf>
-    <xf borderId="1" fillId="0" fontId="0" numFmtId="0" xfId="0" applyAlignment="1" applyBorder="1" applyFont="1">
-      <alignment readingOrder="0" shrinkToFit="0" wrapText="1"/>
+    <xf borderId="3" fillId="0" fontId="0" numFmtId="0" xfId="0" applyAlignment="1" applyBorder="1" applyFont="1">
+      <alignment readingOrder="0"/>
     </xf>
   </cellXfs>
   <cellStyles count="1">
@@ -1098,215 +1107,285 @@
       <c r="G17" s="18" t="s">
         <v>55</v>
       </c>
-      <c r="H17" s="25" t="s">
+      <c r="H17" s="22" t="s">
         <v>15</v>
       </c>
       <c r="I17" s="3"/>
       <c r="J17" s="5"/>
     </row>
     <row r="18" ht="15.75" customHeight="1">
-      <c r="A18" s="26" t="s">
+      <c r="A18" s="17" t="s">
         <v>49</v>
       </c>
-      <c r="B18" s="26" t="s">
+      <c r="B18" s="17" t="s">
         <v>34</v>
       </c>
-      <c r="C18" s="27" t="s">
+      <c r="C18" s="3" t="s">
         <v>26</v>
       </c>
-      <c r="D18" s="28">
+      <c r="D18" s="23">
         <v>43886.0</v>
       </c>
-      <c r="E18" s="28">
+      <c r="E18" s="23">
         <v>43887.0</v>
       </c>
       <c r="F18" s="17" t="s">
         <v>14</v>
       </c>
-      <c r="G18" s="26" t="s">
+      <c r="G18" s="17" t="s">
         <v>56</v>
       </c>
-      <c r="H18" s="25" t="s">
-        <v>57</v>
+      <c r="H18" s="22" t="s">
+        <v>15</v>
       </c>
       <c r="I18" s="3"/>
       <c r="J18" s="5"/>
     </row>
     <row r="19" ht="33.0" customHeight="1">
-      <c r="A19" s="26" t="s">
+      <c r="A19" s="17" t="s">
         <v>9</v>
       </c>
-      <c r="B19" s="29" t="s">
+      <c r="B19" s="18" t="s">
+        <v>57</v>
+      </c>
+      <c r="C19" s="3" t="s">
+        <v>26</v>
+      </c>
+      <c r="D19" s="23">
+        <v>43886.0</v>
+      </c>
+      <c r="E19" s="23">
+        <v>43888.0</v>
+      </c>
+      <c r="F19" s="17" t="s">
+        <v>27</v>
+      </c>
+      <c r="G19" s="18" t="s">
         <v>58</v>
       </c>
-      <c r="C19" s="27" t="s">
-        <v>26</v>
-      </c>
-      <c r="D19" s="28">
-        <v>43886.0</v>
-      </c>
-      <c r="E19" s="28">
-        <v>43888.0</v>
-      </c>
-      <c r="F19" s="26" t="s">
-        <v>27</v>
-      </c>
-      <c r="G19" s="29" t="s">
-        <v>59</v>
-      </c>
-      <c r="H19" s="25" t="s">
-        <v>57</v>
+      <c r="H19" s="22" t="s">
+        <v>15</v>
       </c>
       <c r="I19" s="3"/>
       <c r="J19" s="5"/>
     </row>
     <row r="20" ht="15.75" customHeight="1">
-      <c r="A20" s="26" t="s">
+      <c r="A20" s="17" t="s">
         <v>16</v>
       </c>
-      <c r="B20" s="26" t="s">
-        <v>60</v>
-      </c>
-      <c r="C20" s="27" t="s">
+      <c r="B20" s="17" t="s">
+        <v>59</v>
+      </c>
+      <c r="C20" s="3" t="s">
         <v>26</v>
       </c>
-      <c r="D20" s="28">
+      <c r="D20" s="23">
         <v>43886.0</v>
       </c>
-      <c r="E20" s="28">
+      <c r="E20" s="23">
         <v>43888.0</v>
       </c>
-      <c r="F20" s="26" t="s">
+      <c r="F20" s="17" t="s">
         <v>27</v>
       </c>
       <c r="G20" s="3"/>
-      <c r="H20" s="25" t="s">
-        <v>57</v>
+      <c r="H20" s="22" t="s">
+        <v>15</v>
       </c>
       <c r="I20" s="3"/>
       <c r="J20" s="5"/>
     </row>
     <row r="21" ht="15.75" customHeight="1">
-      <c r="A21" s="26" t="s">
+      <c r="A21" s="17" t="s">
         <v>21</v>
       </c>
-      <c r="B21" s="26" t="s">
-        <v>61</v>
-      </c>
-      <c r="C21" s="27" t="s">
+      <c r="B21" s="17" t="s">
+        <v>60</v>
+      </c>
+      <c r="C21" s="3" t="s">
         <v>26</v>
       </c>
-      <c r="D21" s="28">
+      <c r="D21" s="23">
         <v>43886.0</v>
       </c>
-      <c r="E21" s="28">
+      <c r="E21" s="23">
         <v>43888.0</v>
       </c>
-      <c r="F21" s="26" t="s">
+      <c r="F21" s="17" t="s">
         <v>27</v>
       </c>
       <c r="G21" s="3"/>
-      <c r="H21" s="25" t="s">
-        <v>57</v>
+      <c r="H21" s="22" t="s">
+        <v>15</v>
       </c>
       <c r="I21" s="3"/>
       <c r="J21" s="5"/>
     </row>
     <row r="22" ht="15.75" customHeight="1">
-      <c r="A22" s="26" t="s">
+      <c r="A22" s="17" t="s">
         <v>46</v>
       </c>
-      <c r="B22" s="26" t="s">
-        <v>62</v>
-      </c>
-      <c r="C22" s="27" t="s">
+      <c r="B22" s="17" t="s">
+        <v>61</v>
+      </c>
+      <c r="C22" s="3" t="s">
         <v>26</v>
       </c>
-      <c r="D22" s="28">
+      <c r="D22" s="23">
         <v>43886.0</v>
       </c>
-      <c r="E22" s="28">
+      <c r="E22" s="23">
         <v>43888.0</v>
       </c>
-      <c r="F22" s="26" t="s">
+      <c r="F22" s="17" t="s">
         <v>27</v>
       </c>
       <c r="G22" s="3"/>
-      <c r="H22" s="25" t="s">
-        <v>57</v>
+      <c r="H22" s="22" t="s">
+        <v>15</v>
       </c>
       <c r="I22" s="3"/>
       <c r="J22" s="5"/>
     </row>
     <row r="23" ht="15.75" customHeight="1">
-      <c r="A23" s="3"/>
-      <c r="B23" s="3"/>
-      <c r="C23" s="3"/>
-      <c r="D23" s="3"/>
-      <c r="E23" s="3"/>
-      <c r="F23" s="3"/>
+      <c r="A23" s="25" t="s">
+        <v>21</v>
+      </c>
+      <c r="B23" s="25" t="s">
+        <v>62</v>
+      </c>
+      <c r="C23" s="26" t="s">
+        <v>26</v>
+      </c>
+      <c r="D23" s="27">
+        <v>43892.0</v>
+      </c>
+      <c r="E23" s="27">
+        <v>43892.0</v>
+      </c>
+      <c r="F23" s="25" t="s">
+        <v>14</v>
+      </c>
       <c r="G23" s="3"/>
-      <c r="H23" s="4"/>
+      <c r="H23" s="28" t="s">
+        <v>15</v>
+      </c>
       <c r="I23" s="3"/>
       <c r="J23" s="5"/>
     </row>
     <row r="24" ht="15.75" customHeight="1">
-      <c r="A24" s="3"/>
-      <c r="B24" s="3"/>
-      <c r="C24" s="3"/>
-      <c r="D24" s="3"/>
-      <c r="E24" s="3"/>
-      <c r="F24" s="3"/>
+      <c r="A24" s="25" t="s">
+        <v>9</v>
+      </c>
+      <c r="B24" s="25" t="s">
+        <v>63</v>
+      </c>
+      <c r="C24" s="26" t="s">
+        <v>26</v>
+      </c>
+      <c r="D24" s="27">
+        <v>43892.0</v>
+      </c>
+      <c r="E24" s="27">
+        <v>43892.0</v>
+      </c>
+      <c r="F24" s="25" t="s">
+        <v>14</v>
+      </c>
       <c r="G24" s="3"/>
-      <c r="H24" s="4"/>
+      <c r="H24" s="28" t="s">
+        <v>15</v>
+      </c>
       <c r="I24" s="3"/>
       <c r="J24" s="5"/>
     </row>
     <row r="25" ht="15.75" customHeight="1">
-      <c r="A25" s="3"/>
-      <c r="B25" s="3"/>
-      <c r="C25" s="3"/>
-      <c r="D25" s="3"/>
-      <c r="E25" s="3"/>
-      <c r="F25" s="3"/>
+      <c r="A25" s="25" t="s">
+        <v>21</v>
+      </c>
+      <c r="B25" s="25" t="s">
+        <v>62</v>
+      </c>
+      <c r="C25" s="26" t="s">
+        <v>26</v>
+      </c>
+      <c r="D25" s="27">
+        <v>43893.0</v>
+      </c>
+      <c r="E25" s="27">
+        <v>43893.0</v>
+      </c>
+      <c r="F25" s="25" t="s">
+        <v>14</v>
+      </c>
       <c r="G25" s="3"/>
-      <c r="H25" s="4"/>
+      <c r="H25" s="28" t="s">
+        <v>64</v>
+      </c>
       <c r="I25" s="3"/>
       <c r="J25" s="5"/>
     </row>
     <row r="26" ht="15.75" customHeight="1">
-      <c r="A26" s="3"/>
-      <c r="B26" s="3"/>
-      <c r="C26" s="3"/>
-      <c r="D26" s="3"/>
-      <c r="E26" s="3"/>
-      <c r="F26" s="3"/>
+      <c r="A26" s="25" t="s">
+        <v>16</v>
+      </c>
+      <c r="B26" s="25" t="s">
+        <v>65</v>
+      </c>
+      <c r="C26" s="26" t="s">
+        <v>26</v>
+      </c>
+      <c r="D26" s="27">
+        <v>43893.0</v>
+      </c>
+      <c r="E26" s="27">
+        <v>43895.0</v>
+      </c>
+      <c r="F26" s="25" t="s">
+        <v>14</v>
+      </c>
       <c r="G26" s="3"/>
-      <c r="H26" s="4"/>
+      <c r="H26" s="28" t="s">
+        <v>64</v>
+      </c>
       <c r="I26" s="3"/>
       <c r="J26" s="5"/>
     </row>
     <row r="27" ht="15.75" customHeight="1">
-      <c r="A27" s="3"/>
-      <c r="B27" s="3"/>
-      <c r="C27" s="3"/>
-      <c r="D27" s="3"/>
-      <c r="E27" s="3"/>
-      <c r="F27" s="3"/>
+      <c r="A27" s="25" t="s">
+        <v>9</v>
+      </c>
+      <c r="B27" s="25" t="s">
+        <v>66</v>
+      </c>
+      <c r="C27" s="26" t="s">
+        <v>26</v>
+      </c>
+      <c r="D27" s="27">
+        <v>43893.0</v>
+      </c>
+      <c r="E27" s="27">
+        <v>43895.0</v>
+      </c>
+      <c r="F27" s="25" t="s">
+        <v>14</v>
+      </c>
       <c r="G27" s="3"/>
-      <c r="H27" s="4"/>
+      <c r="H27" s="28" t="s">
+        <v>64</v>
+      </c>
       <c r="I27" s="3"/>
       <c r="J27" s="5"/>
     </row>
     <row r="28" ht="15.75" customHeight="1">
-      <c r="A28" s="3"/>
-      <c r="B28" s="3"/>
-      <c r="C28" s="3"/>
+      <c r="A28" s="25"/>
+      <c r="B28" s="25"/>
+      <c r="C28" s="25"/>
       <c r="D28" s="3"/>
       <c r="E28" s="3"/>
       <c r="F28" s="3"/>
       <c r="G28" s="3"/>
-      <c r="H28" s="4"/>
+      <c r="H28" s="28"/>
       <c r="I28" s="3"/>
       <c r="J28" s="5"/>
     </row>

--- a/SW deliveries log/Project Plan.xlsx
+++ b/SW deliveries log/Project Plan.xlsx
@@ -14,7 +14,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="163" uniqueCount="67">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="178" uniqueCount="70">
   <si>
     <t>Team member</t>
   </si>
@@ -221,6 +221,9 @@
     <t>Update input and output signals</t>
   </si>
   <si>
+    <t>Update RTM with GDD requirements</t>
+  </si>
+  <si>
     <t>Pending</t>
   </si>
   <si>
@@ -228,6 +231,12 @@
   </si>
   <si>
     <t>Create CDD for DIO</t>
+  </si>
+  <si>
+    <t>Review Buzzer CDD document</t>
+  </si>
+  <si>
+    <t>Review DIO CDD document</t>
   </si>
 </sst>
 </file>
@@ -400,16 +409,16 @@
     <xf borderId="1" fillId="0" fontId="0" numFmtId="0" xfId="0" applyAlignment="1" applyBorder="1" applyFont="1">
       <alignment shrinkToFit="0" vertical="top" wrapText="1"/>
     </xf>
-    <xf borderId="1" fillId="0" fontId="0" numFmtId="0" xfId="0" applyAlignment="1" applyBorder="1" applyFont="1">
-      <alignment readingOrder="0"/>
-    </xf>
-    <xf borderId="1" fillId="0" fontId="2" numFmtId="0" xfId="0" applyBorder="1" applyFont="1"/>
     <xf borderId="1" fillId="0" fontId="0" numFmtId="14" xfId="0" applyAlignment="1" applyBorder="1" applyFont="1" applyNumberFormat="1">
       <alignment horizontal="left" readingOrder="0"/>
     </xf>
     <xf borderId="3" fillId="0" fontId="0" numFmtId="0" xfId="0" applyAlignment="1" applyBorder="1" applyFont="1">
       <alignment readingOrder="0"/>
     </xf>
+    <xf borderId="1" fillId="0" fontId="0" numFmtId="0" xfId="0" applyAlignment="1" applyBorder="1" applyFont="1">
+      <alignment readingOrder="0"/>
+    </xf>
+    <xf borderId="1" fillId="0" fontId="2" numFmtId="0" xfId="0" applyBorder="1" applyFont="1"/>
   </cellXfs>
   <cellStyles count="1">
     <cellStyle xfId="0" name="Normal" builtinId="0"/>
@@ -1248,168 +1257,210 @@
       <c r="J22" s="5"/>
     </row>
     <row r="23" ht="15.75" customHeight="1">
-      <c r="A23" s="25" t="s">
+      <c r="A23" s="17" t="s">
         <v>21</v>
       </c>
-      <c r="B23" s="25" t="s">
+      <c r="B23" s="17" t="s">
         <v>62</v>
       </c>
-      <c r="C23" s="26" t="s">
+      <c r="C23" s="3" t="s">
         <v>26</v>
       </c>
-      <c r="D23" s="27">
+      <c r="D23" s="23">
         <v>43892.0</v>
       </c>
-      <c r="E23" s="27">
+      <c r="E23" s="23">
         <v>43892.0</v>
       </c>
-      <c r="F23" s="25" t="s">
+      <c r="F23" s="17" t="s">
         <v>14</v>
       </c>
       <c r="G23" s="3"/>
-      <c r="H23" s="28" t="s">
+      <c r="H23" s="22" t="s">
         <v>15</v>
       </c>
       <c r="I23" s="3"/>
       <c r="J23" s="5"/>
     </row>
     <row r="24" ht="15.75" customHeight="1">
-      <c r="A24" s="25" t="s">
+      <c r="A24" s="17" t="s">
         <v>9</v>
       </c>
-      <c r="B24" s="25" t="s">
+      <c r="B24" s="17" t="s">
         <v>63</v>
       </c>
-      <c r="C24" s="26" t="s">
+      <c r="C24" s="3" t="s">
         <v>26</v>
       </c>
-      <c r="D24" s="27">
+      <c r="D24" s="23">
         <v>43892.0</v>
       </c>
-      <c r="E24" s="27">
+      <c r="E24" s="23">
         <v>43892.0</v>
       </c>
-      <c r="F24" s="25" t="s">
+      <c r="F24" s="17" t="s">
         <v>14</v>
       </c>
       <c r="G24" s="3"/>
-      <c r="H24" s="28" t="s">
+      <c r="H24" s="22" t="s">
         <v>15</v>
       </c>
       <c r="I24" s="3"/>
       <c r="J24" s="5"/>
     </row>
     <row r="25" ht="15.75" customHeight="1">
-      <c r="A25" s="25" t="s">
+      <c r="A25" s="17" t="s">
         <v>21</v>
       </c>
-      <c r="B25" s="25" t="s">
+      <c r="B25" s="17" t="s">
         <v>62</v>
       </c>
-      <c r="C25" s="26" t="s">
+      <c r="C25" s="3" t="s">
         <v>26</v>
       </c>
-      <c r="D25" s="27">
+      <c r="D25" s="23">
         <v>43893.0</v>
       </c>
-      <c r="E25" s="27">
-        <v>43893.0</v>
-      </c>
-      <c r="F25" s="25" t="s">
+      <c r="E25" s="25">
+        <v>43894.0</v>
+      </c>
+      <c r="F25" s="17" t="s">
         <v>14</v>
       </c>
       <c r="G25" s="3"/>
-      <c r="H25" s="28" t="s">
-        <v>64</v>
+      <c r="H25" s="26" t="s">
+        <v>15</v>
       </c>
       <c r="I25" s="3"/>
       <c r="J25" s="5"/>
     </row>
     <row r="26" ht="15.75" customHeight="1">
-      <c r="A26" s="25" t="s">
-        <v>16</v>
-      </c>
-      <c r="B26" s="25" t="s">
+      <c r="A26" s="17" t="s">
+        <v>21</v>
+      </c>
+      <c r="B26" s="27" t="s">
+        <v>64</v>
+      </c>
+      <c r="C26" s="3" t="s">
+        <v>26</v>
+      </c>
+      <c r="D26" s="23">
+        <v>43893.0</v>
+      </c>
+      <c r="E26" s="25">
+        <v>43894.0</v>
+      </c>
+      <c r="F26" s="17" t="s">
+        <v>14</v>
+      </c>
+      <c r="G26" s="3"/>
+      <c r="H26" s="22" t="s">
         <v>65</v>
-      </c>
-      <c r="C26" s="26" t="s">
-        <v>26</v>
-      </c>
-      <c r="D26" s="27">
-        <v>43893.0</v>
-      </c>
-      <c r="E26" s="27">
-        <v>43895.0</v>
-      </c>
-      <c r="F26" s="25" t="s">
-        <v>14</v>
-      </c>
-      <c r="G26" s="3"/>
-      <c r="H26" s="28" t="s">
-        <v>64</v>
       </c>
       <c r="I26" s="3"/>
       <c r="J26" s="5"/>
     </row>
     <row r="27" ht="15.75" customHeight="1">
-      <c r="A27" s="25" t="s">
-        <v>9</v>
-      </c>
-      <c r="B27" s="25" t="s">
+      <c r="A27" s="17" t="s">
+        <v>16</v>
+      </c>
+      <c r="B27" s="17" t="s">
         <v>66</v>
       </c>
-      <c r="C27" s="26" t="s">
+      <c r="C27" s="28" t="s">
         <v>26</v>
       </c>
-      <c r="D27" s="27">
+      <c r="D27" s="23">
         <v>43893.0</v>
       </c>
-      <c r="E27" s="27">
+      <c r="E27" s="23">
         <v>43895.0</v>
       </c>
-      <c r="F27" s="25" t="s">
-        <v>14</v>
+      <c r="F27" s="27" t="s">
+        <v>27</v>
       </c>
       <c r="G27" s="3"/>
-      <c r="H27" s="28" t="s">
-        <v>64</v>
+      <c r="H27" s="22" t="s">
+        <v>65</v>
       </c>
       <c r="I27" s="3"/>
       <c r="J27" s="5"/>
     </row>
     <row r="28" ht="15.75" customHeight="1">
-      <c r="A28" s="25"/>
-      <c r="B28" s="25"/>
-      <c r="C28" s="25"/>
-      <c r="D28" s="3"/>
-      <c r="E28" s="3"/>
-      <c r="F28" s="3"/>
+      <c r="A28" s="17" t="s">
+        <v>9</v>
+      </c>
+      <c r="B28" s="17" t="s">
+        <v>67</v>
+      </c>
+      <c r="C28" s="28" t="s">
+        <v>26</v>
+      </c>
+      <c r="D28" s="23">
+        <v>43893.0</v>
+      </c>
+      <c r="E28" s="23">
+        <v>43895.0</v>
+      </c>
+      <c r="F28" s="27" t="s">
+        <v>27</v>
+      </c>
       <c r="G28" s="3"/>
-      <c r="H28" s="28"/>
+      <c r="H28" s="22" t="s">
+        <v>65</v>
+      </c>
       <c r="I28" s="3"/>
       <c r="J28" s="5"/>
     </row>
     <row r="29" ht="15.75" customHeight="1">
-      <c r="A29" s="3"/>
-      <c r="B29" s="3"/>
-      <c r="C29" s="3"/>
-      <c r="D29" s="3"/>
-      <c r="E29" s="3"/>
-      <c r="F29" s="3"/>
+      <c r="A29" s="27" t="s">
+        <v>46</v>
+      </c>
+      <c r="B29" s="27" t="s">
+        <v>68</v>
+      </c>
+      <c r="C29" s="28" t="s">
+        <v>26</v>
+      </c>
+      <c r="D29" s="25">
+        <v>43895.0</v>
+      </c>
+      <c r="E29" s="25">
+        <v>43895.0</v>
+      </c>
+      <c r="F29" s="17" t="s">
+        <v>14</v>
+      </c>
       <c r="G29" s="3"/>
-      <c r="H29" s="4"/>
+      <c r="H29" s="22" t="s">
+        <v>65</v>
+      </c>
       <c r="I29" s="3"/>
       <c r="J29" s="5"/>
     </row>
     <row r="30" ht="15.75" customHeight="1">
-      <c r="A30" s="3"/>
-      <c r="B30" s="3"/>
-      <c r="C30" s="3"/>
-      <c r="D30" s="3"/>
-      <c r="E30" s="3"/>
-      <c r="F30" s="3"/>
+      <c r="A30" s="27" t="s">
+        <v>49</v>
+      </c>
+      <c r="B30" s="27" t="s">
+        <v>69</v>
+      </c>
+      <c r="C30" s="28" t="s">
+        <v>26</v>
+      </c>
+      <c r="D30" s="25">
+        <v>43895.0</v>
+      </c>
+      <c r="E30" s="25">
+        <v>43895.0</v>
+      </c>
+      <c r="F30" s="17" t="s">
+        <v>14</v>
+      </c>
       <c r="G30" s="3"/>
-      <c r="H30" s="4"/>
+      <c r="H30" s="22" t="s">
+        <v>65</v>
+      </c>
       <c r="I30" s="3"/>
       <c r="J30" s="5"/>
     </row>

--- a/SW deliveries log/Project Plan.xlsx
+++ b/SW deliveries log/Project Plan.xlsx
@@ -224,10 +224,10 @@
     <t>Update RTM with GDD requirements</t>
   </si>
   <si>
+    <t>Create CDD for Buzzer</t>
+  </si>
+  <si>
     <t>Pending</t>
-  </si>
-  <si>
-    <t>Create CDD for Buzzer</t>
   </si>
   <si>
     <t>Create CDD for DIO</t>
@@ -1354,8 +1354,8 @@
         <v>14</v>
       </c>
       <c r="G26" s="3"/>
-      <c r="H26" s="22" t="s">
-        <v>65</v>
+      <c r="H26" s="26" t="s">
+        <v>15</v>
       </c>
       <c r="I26" s="3"/>
       <c r="J26" s="5"/>
@@ -1365,7 +1365,7 @@
         <v>16</v>
       </c>
       <c r="B27" s="17" t="s">
-        <v>66</v>
+        <v>65</v>
       </c>
       <c r="C27" s="28" t="s">
         <v>26</v>
@@ -1381,7 +1381,7 @@
       </c>
       <c r="G27" s="3"/>
       <c r="H27" s="22" t="s">
-        <v>65</v>
+        <v>66</v>
       </c>
       <c r="I27" s="3"/>
       <c r="J27" s="5"/>
@@ -1407,7 +1407,7 @@
       </c>
       <c r="G28" s="3"/>
       <c r="H28" s="22" t="s">
-        <v>65</v>
+        <v>66</v>
       </c>
       <c r="I28" s="3"/>
       <c r="J28" s="5"/>
@@ -1433,7 +1433,7 @@
       </c>
       <c r="G29" s="3"/>
       <c r="H29" s="22" t="s">
-        <v>65</v>
+        <v>66</v>
       </c>
       <c r="I29" s="3"/>
       <c r="J29" s="5"/>
@@ -1459,7 +1459,7 @@
       </c>
       <c r="G30" s="3"/>
       <c r="H30" s="22" t="s">
-        <v>65</v>
+        <v>66</v>
       </c>
       <c r="I30" s="3"/>
       <c r="J30" s="5"/>

--- a/SW deliveries log/Project Plan.xlsx
+++ b/SW deliveries log/Project Plan.xlsx
@@ -227,10 +227,10 @@
     <t>Create CDD for Buzzer</t>
   </si>
   <si>
+    <t>Create CDD for Switch</t>
+  </si>
+  <si>
     <t>Pending</t>
-  </si>
-  <si>
-    <t>Create CDD for DIO</t>
   </si>
   <si>
     <t>Review Buzzer CDD document</t>
@@ -243,7 +243,7 @@
 
 <file path=xl/styles.xml><?xml version="1.0" encoding="utf-8"?>
 <styleSheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006">
-  <fonts count="3">
+  <fonts count="2">
     <font>
       <sz val="10.0"/>
       <color rgb="FF000000"/>
@@ -252,10 +252,6 @@
     <font>
       <sz val="10.0"/>
       <color theme="1"/>
-      <name val="Arial"/>
-    </font>
-    <font>
-      <sz val="10.0"/>
       <name val="Arial"/>
     </font>
   </fonts>
@@ -357,7 +353,7 @@
   <cellStyleXfs count="1">
     <xf borderId="0" fillId="0" fontId="0" numFmtId="0" applyAlignment="1" applyFont="1"/>
   </cellStyleXfs>
-  <cellXfs count="29">
+  <cellXfs count="27">
     <xf borderId="0" fillId="0" fontId="0" numFmtId="0" xfId="0" applyAlignment="1" applyFont="1">
       <alignment readingOrder="0" shrinkToFit="0" vertical="bottom" wrapText="0"/>
     </xf>
@@ -409,16 +405,12 @@
     <xf borderId="1" fillId="0" fontId="0" numFmtId="0" xfId="0" applyAlignment="1" applyBorder="1" applyFont="1">
       <alignment shrinkToFit="0" vertical="top" wrapText="1"/>
     </xf>
-    <xf borderId="1" fillId="0" fontId="0" numFmtId="14" xfId="0" applyAlignment="1" applyBorder="1" applyFont="1" applyNumberFormat="1">
-      <alignment horizontal="left" readingOrder="0"/>
-    </xf>
     <xf borderId="3" fillId="0" fontId="0" numFmtId="0" xfId="0" applyAlignment="1" applyBorder="1" applyFont="1">
       <alignment readingOrder="0"/>
     </xf>
     <xf borderId="1" fillId="0" fontId="0" numFmtId="0" xfId="0" applyAlignment="1" applyBorder="1" applyFont="1">
       <alignment readingOrder="0"/>
     </xf>
-    <xf borderId="1" fillId="0" fontId="2" numFmtId="0" xfId="0" applyBorder="1" applyFont="1"/>
   </cellXfs>
   <cellStyles count="1">
     <cellStyle xfId="0" name="Normal" builtinId="0"/>
@@ -1321,14 +1313,14 @@
       <c r="D25" s="23">
         <v>43893.0</v>
       </c>
-      <c r="E25" s="25">
+      <c r="E25" s="23">
         <v>43894.0</v>
       </c>
       <c r="F25" s="17" t="s">
         <v>14</v>
       </c>
       <c r="G25" s="3"/>
-      <c r="H25" s="26" t="s">
+      <c r="H25" s="22" t="s">
         <v>15</v>
       </c>
       <c r="I25" s="3"/>
@@ -1338,7 +1330,7 @@
       <c r="A26" s="17" t="s">
         <v>21</v>
       </c>
-      <c r="B26" s="27" t="s">
+      <c r="B26" s="17" t="s">
         <v>64</v>
       </c>
       <c r="C26" s="3" t="s">
@@ -1347,14 +1339,14 @@
       <c r="D26" s="23">
         <v>43893.0</v>
       </c>
-      <c r="E26" s="25">
+      <c r="E26" s="23">
         <v>43894.0</v>
       </c>
       <c r="F26" s="17" t="s">
         <v>14</v>
       </c>
       <c r="G26" s="3"/>
-      <c r="H26" s="26" t="s">
+      <c r="H26" s="22" t="s">
         <v>15</v>
       </c>
       <c r="I26" s="3"/>
@@ -1367,7 +1359,7 @@
       <c r="B27" s="17" t="s">
         <v>65</v>
       </c>
-      <c r="C27" s="28" t="s">
+      <c r="C27" s="3" t="s">
         <v>26</v>
       </c>
       <c r="D27" s="23">
@@ -1376,12 +1368,12 @@
       <c r="E27" s="23">
         <v>43895.0</v>
       </c>
-      <c r="F27" s="27" t="s">
+      <c r="F27" s="17" t="s">
         <v>27</v>
       </c>
       <c r="G27" s="3"/>
-      <c r="H27" s="22" t="s">
-        <v>66</v>
+      <c r="H27" s="25" t="s">
+        <v>15</v>
       </c>
       <c r="I27" s="3"/>
       <c r="J27" s="5"/>
@@ -1390,10 +1382,10 @@
       <c r="A28" s="17" t="s">
         <v>9</v>
       </c>
-      <c r="B28" s="17" t="s">
-        <v>67</v>
-      </c>
-      <c r="C28" s="28" t="s">
+      <c r="B28" s="26" t="s">
+        <v>66</v>
+      </c>
+      <c r="C28" s="3" t="s">
         <v>26</v>
       </c>
       <c r="D28" s="23">
@@ -1402,30 +1394,30 @@
       <c r="E28" s="23">
         <v>43895.0</v>
       </c>
-      <c r="F28" s="27" t="s">
+      <c r="F28" s="17" t="s">
         <v>27</v>
       </c>
       <c r="G28" s="3"/>
       <c r="H28" s="22" t="s">
-        <v>66</v>
+        <v>67</v>
       </c>
       <c r="I28" s="3"/>
       <c r="J28" s="5"/>
     </row>
     <row r="29" ht="15.75" customHeight="1">
-      <c r="A29" s="27" t="s">
+      <c r="A29" s="17" t="s">
         <v>46</v>
       </c>
-      <c r="B29" s="27" t="s">
+      <c r="B29" s="17" t="s">
         <v>68</v>
       </c>
-      <c r="C29" s="28" t="s">
+      <c r="C29" s="3" t="s">
         <v>26</v>
       </c>
-      <c r="D29" s="25">
+      <c r="D29" s="23">
         <v>43895.0</v>
       </c>
-      <c r="E29" s="25">
+      <c r="E29" s="23">
         <v>43895.0</v>
       </c>
       <c r="F29" s="17" t="s">
@@ -1433,25 +1425,25 @@
       </c>
       <c r="G29" s="3"/>
       <c r="H29" s="22" t="s">
-        <v>66</v>
+        <v>67</v>
       </c>
       <c r="I29" s="3"/>
       <c r="J29" s="5"/>
     </row>
     <row r="30" ht="15.75" customHeight="1">
-      <c r="A30" s="27" t="s">
+      <c r="A30" s="17" t="s">
         <v>49</v>
       </c>
-      <c r="B30" s="27" t="s">
+      <c r="B30" s="17" t="s">
         <v>69</v>
       </c>
-      <c r="C30" s="28" t="s">
+      <c r="C30" s="3" t="s">
         <v>26</v>
       </c>
-      <c r="D30" s="25">
+      <c r="D30" s="23">
         <v>43895.0</v>
       </c>
-      <c r="E30" s="25">
+      <c r="E30" s="23">
         <v>43895.0</v>
       </c>
       <c r="F30" s="17" t="s">
@@ -1459,7 +1451,7 @@
       </c>
       <c r="G30" s="3"/>
       <c r="H30" s="22" t="s">
-        <v>66</v>
+        <v>67</v>
       </c>
       <c r="I30" s="3"/>
       <c r="J30" s="5"/>

--- a/SW deliveries log/Project Plan.xlsx
+++ b/SW deliveries log/Project Plan.xlsx
@@ -227,10 +227,10 @@
     <t>Create CDD for Buzzer</t>
   </si>
   <si>
-    <t>Create CDD for Switch</t>
-  </si>
-  <si>
     <t>Pending</t>
+  </si>
+  <si>
+    <t>Create CDD for DIO</t>
   </si>
   <si>
     <t>Review Buzzer CDD document</t>
@@ -243,7 +243,7 @@
 
 <file path=xl/styles.xml><?xml version="1.0" encoding="utf-8"?>
 <styleSheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006">
-  <fonts count="2">
+  <fonts count="3">
     <font>
       <sz val="10.0"/>
       <color rgb="FF000000"/>
@@ -252,6 +252,10 @@
     <font>
       <sz val="10.0"/>
       <color theme="1"/>
+      <name val="Arial"/>
+    </font>
+    <font>
+      <sz val="10.0"/>
       <name val="Arial"/>
     </font>
   </fonts>
@@ -353,7 +357,7 @@
   <cellStyleXfs count="1">
     <xf borderId="0" fillId="0" fontId="0" numFmtId="0" applyAlignment="1" applyFont="1"/>
   </cellStyleXfs>
-  <cellXfs count="27">
+  <cellXfs count="29">
     <xf borderId="0" fillId="0" fontId="0" numFmtId="0" xfId="0" applyAlignment="1" applyFont="1">
       <alignment readingOrder="0" shrinkToFit="0" vertical="bottom" wrapText="0"/>
     </xf>
@@ -405,12 +409,16 @@
     <xf borderId="1" fillId="0" fontId="0" numFmtId="0" xfId="0" applyAlignment="1" applyBorder="1" applyFont="1">
       <alignment shrinkToFit="0" vertical="top" wrapText="1"/>
     </xf>
+    <xf borderId="1" fillId="0" fontId="0" numFmtId="14" xfId="0" applyAlignment="1" applyBorder="1" applyFont="1" applyNumberFormat="1">
+      <alignment horizontal="left" readingOrder="0"/>
+    </xf>
     <xf borderId="3" fillId="0" fontId="0" numFmtId="0" xfId="0" applyAlignment="1" applyBorder="1" applyFont="1">
       <alignment readingOrder="0"/>
     </xf>
     <xf borderId="1" fillId="0" fontId="0" numFmtId="0" xfId="0" applyAlignment="1" applyBorder="1" applyFont="1">
       <alignment readingOrder="0"/>
     </xf>
+    <xf borderId="1" fillId="0" fontId="2" numFmtId="0" xfId="0" applyBorder="1" applyFont="1"/>
   </cellXfs>
   <cellStyles count="1">
     <cellStyle xfId="0" name="Normal" builtinId="0"/>
@@ -1313,14 +1321,14 @@
       <c r="D25" s="23">
         <v>43893.0</v>
       </c>
-      <c r="E25" s="23">
+      <c r="E25" s="25">
         <v>43894.0</v>
       </c>
       <c r="F25" s="17" t="s">
         <v>14</v>
       </c>
       <c r="G25" s="3"/>
-      <c r="H25" s="22" t="s">
+      <c r="H25" s="26" t="s">
         <v>15</v>
       </c>
       <c r="I25" s="3"/>
@@ -1330,7 +1338,7 @@
       <c r="A26" s="17" t="s">
         <v>21</v>
       </c>
-      <c r="B26" s="17" t="s">
+      <c r="B26" s="27" t="s">
         <v>64</v>
       </c>
       <c r="C26" s="3" t="s">
@@ -1339,14 +1347,14 @@
       <c r="D26" s="23">
         <v>43893.0</v>
       </c>
-      <c r="E26" s="23">
+      <c r="E26" s="25">
         <v>43894.0</v>
       </c>
       <c r="F26" s="17" t="s">
         <v>14</v>
       </c>
       <c r="G26" s="3"/>
-      <c r="H26" s="22" t="s">
+      <c r="H26" s="26" t="s">
         <v>15</v>
       </c>
       <c r="I26" s="3"/>
@@ -1359,7 +1367,7 @@
       <c r="B27" s="17" t="s">
         <v>65</v>
       </c>
-      <c r="C27" s="3" t="s">
+      <c r="C27" s="28" t="s">
         <v>26</v>
       </c>
       <c r="D27" s="23">
@@ -1368,12 +1376,12 @@
       <c r="E27" s="23">
         <v>43895.0</v>
       </c>
-      <c r="F27" s="17" t="s">
+      <c r="F27" s="27" t="s">
         <v>27</v>
       </c>
       <c r="G27" s="3"/>
-      <c r="H27" s="25" t="s">
-        <v>15</v>
+      <c r="H27" s="22" t="s">
+        <v>66</v>
       </c>
       <c r="I27" s="3"/>
       <c r="J27" s="5"/>
@@ -1382,10 +1390,10 @@
       <c r="A28" s="17" t="s">
         <v>9</v>
       </c>
-      <c r="B28" s="26" t="s">
-        <v>66</v>
-      </c>
-      <c r="C28" s="3" t="s">
+      <c r="B28" s="17" t="s">
+        <v>67</v>
+      </c>
+      <c r="C28" s="28" t="s">
         <v>26</v>
       </c>
       <c r="D28" s="23">
@@ -1394,30 +1402,30 @@
       <c r="E28" s="23">
         <v>43895.0</v>
       </c>
-      <c r="F28" s="17" t="s">
+      <c r="F28" s="27" t="s">
         <v>27</v>
       </c>
       <c r="G28" s="3"/>
       <c r="H28" s="22" t="s">
-        <v>67</v>
+        <v>66</v>
       </c>
       <c r="I28" s="3"/>
       <c r="J28" s="5"/>
     </row>
     <row r="29" ht="15.75" customHeight="1">
-      <c r="A29" s="17" t="s">
+      <c r="A29" s="27" t="s">
         <v>46</v>
       </c>
-      <c r="B29" s="17" t="s">
+      <c r="B29" s="27" t="s">
         <v>68</v>
       </c>
-      <c r="C29" s="3" t="s">
+      <c r="C29" s="28" t="s">
         <v>26</v>
       </c>
-      <c r="D29" s="23">
+      <c r="D29" s="25">
         <v>43895.0</v>
       </c>
-      <c r="E29" s="23">
+      <c r="E29" s="25">
         <v>43895.0</v>
       </c>
       <c r="F29" s="17" t="s">
@@ -1425,25 +1433,25 @@
       </c>
       <c r="G29" s="3"/>
       <c r="H29" s="22" t="s">
-        <v>67</v>
+        <v>66</v>
       </c>
       <c r="I29" s="3"/>
       <c r="J29" s="5"/>
     </row>
     <row r="30" ht="15.75" customHeight="1">
-      <c r="A30" s="17" t="s">
+      <c r="A30" s="27" t="s">
         <v>49</v>
       </c>
-      <c r="B30" s="17" t="s">
+      <c r="B30" s="27" t="s">
         <v>69</v>
       </c>
-      <c r="C30" s="3" t="s">
+      <c r="C30" s="28" t="s">
         <v>26</v>
       </c>
-      <c r="D30" s="23">
+      <c r="D30" s="25">
         <v>43895.0</v>
       </c>
-      <c r="E30" s="23">
+      <c r="E30" s="25">
         <v>43895.0</v>
       </c>
       <c r="F30" s="17" t="s">
@@ -1451,7 +1459,7 @@
       </c>
       <c r="G30" s="3"/>
       <c r="H30" s="22" t="s">
-        <v>67</v>
+        <v>66</v>
       </c>
       <c r="I30" s="3"/>
       <c r="J30" s="5"/>

--- a/SW deliveries log/Project Plan.xlsx
+++ b/SW deliveries log/Project Plan.xlsx
@@ -14,7 +14,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="178" uniqueCount="70">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="193" uniqueCount="73">
   <si>
     <t>Team member</t>
   </si>
@@ -203,6 +203,9 @@
     <t>Create GDD document and layered architecture</t>
   </si>
   <si>
+    <t>Techinical</t>
+  </si>
+  <si>
     <t>Initial creation of GDD document and initial layered architecture</t>
   </si>
   <si>
@@ -227,9 +230,6 @@
     <t>Create CDD for Buzzer</t>
   </si>
   <si>
-    <t>Pending</t>
-  </si>
-  <si>
     <t>Create CDD for DIO</t>
   </si>
   <si>
@@ -237,13 +237,22 @@
   </si>
   <si>
     <t>Review DIO CDD document</t>
+  </si>
+  <si>
+    <t>Update GDD docment According to review</t>
+  </si>
+  <si>
+    <t>Update buzzer CDD docment According to review</t>
+  </si>
+  <si>
+    <t>Update switch CDD docment According to review</t>
   </si>
 </sst>
 </file>
 
 <file path=xl/styles.xml><?xml version="1.0" encoding="utf-8"?>
 <styleSheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006">
-  <fonts count="3">
+  <fonts count="2">
     <font>
       <sz val="10.0"/>
       <color rgb="FF000000"/>
@@ -252,10 +261,6 @@
     <font>
       <sz val="10.0"/>
       <color theme="1"/>
-      <name val="Arial"/>
-    </font>
-    <font>
-      <sz val="10.0"/>
       <name val="Arial"/>
     </font>
   </fonts>
@@ -357,7 +362,7 @@
   <cellStyleXfs count="1">
     <xf borderId="0" fillId="0" fontId="0" numFmtId="0" applyAlignment="1" applyFont="1"/>
   </cellStyleXfs>
-  <cellXfs count="29">
+  <cellXfs count="28">
     <xf borderId="0" fillId="0" fontId="0" numFmtId="0" xfId="0" applyAlignment="1" applyFont="1">
       <alignment readingOrder="0" shrinkToFit="0" vertical="bottom" wrapText="0"/>
     </xf>
@@ -409,16 +414,15 @@
     <xf borderId="1" fillId="0" fontId="0" numFmtId="0" xfId="0" applyAlignment="1" applyBorder="1" applyFont="1">
       <alignment shrinkToFit="0" vertical="top" wrapText="1"/>
     </xf>
+    <xf borderId="1" fillId="0" fontId="0" numFmtId="0" xfId="0" applyAlignment="1" applyBorder="1" applyFont="1">
+      <alignment readingOrder="0"/>
+    </xf>
     <xf borderId="1" fillId="0" fontId="0" numFmtId="14" xfId="0" applyAlignment="1" applyBorder="1" applyFont="1" applyNumberFormat="1">
       <alignment horizontal="left" readingOrder="0"/>
     </xf>
-    <xf borderId="3" fillId="0" fontId="0" numFmtId="0" xfId="0" applyAlignment="1" applyBorder="1" applyFont="1">
-      <alignment readingOrder="0"/>
+    <xf borderId="1" fillId="0" fontId="0" numFmtId="0" xfId="0" applyAlignment="1" applyBorder="1" applyFont="1">
+      <alignment readingOrder="0" shrinkToFit="0" wrapText="1"/>
     </xf>
-    <xf borderId="1" fillId="0" fontId="0" numFmtId="0" xfId="0" applyAlignment="1" applyBorder="1" applyFont="1">
-      <alignment readingOrder="0"/>
-    </xf>
-    <xf borderId="1" fillId="0" fontId="2" numFmtId="0" xfId="0" applyBorder="1" applyFont="1"/>
   </cellXfs>
   <cellStyles count="1">
     <cellStyle xfId="0" name="Normal" builtinId="0"/>
@@ -641,7 +645,7 @@
   <sheetFormatPr customHeight="1" defaultColWidth="14.43" defaultRowHeight="15.0"/>
   <cols>
     <col customWidth="1" min="1" max="1" width="26.0"/>
-    <col customWidth="1" min="2" max="2" width="35.43"/>
+    <col customWidth="1" min="2" max="2" width="37.43"/>
     <col customWidth="1" min="3" max="3" width="17.86"/>
     <col customWidth="1" min="4" max="4" width="16.14"/>
     <col customWidth="1" min="5" max="5" width="20.57"/>
@@ -1157,8 +1161,8 @@
       <c r="B19" s="18" t="s">
         <v>57</v>
       </c>
-      <c r="C19" s="3" t="s">
-        <v>26</v>
+      <c r="C19" s="25" t="s">
+        <v>58</v>
       </c>
       <c r="D19" s="23">
         <v>43886.0</v>
@@ -1170,7 +1174,7 @@
         <v>27</v>
       </c>
       <c r="G19" s="18" t="s">
-        <v>58</v>
+        <v>59</v>
       </c>
       <c r="H19" s="22" t="s">
         <v>15</v>
@@ -1183,10 +1187,10 @@
         <v>16</v>
       </c>
       <c r="B20" s="17" t="s">
-        <v>59</v>
-      </c>
-      <c r="C20" s="3" t="s">
-        <v>26</v>
+        <v>60</v>
+      </c>
+      <c r="C20" s="25" t="s">
+        <v>58</v>
       </c>
       <c r="D20" s="23">
         <v>43886.0</v>
@@ -1209,10 +1213,10 @@
         <v>21</v>
       </c>
       <c r="B21" s="17" t="s">
-        <v>60</v>
-      </c>
-      <c r="C21" s="3" t="s">
-        <v>26</v>
+        <v>61</v>
+      </c>
+      <c r="C21" s="25" t="s">
+        <v>58</v>
       </c>
       <c r="D21" s="23">
         <v>43886.0</v>
@@ -1235,10 +1239,10 @@
         <v>46</v>
       </c>
       <c r="B22" s="17" t="s">
-        <v>61</v>
-      </c>
-      <c r="C22" s="3" t="s">
-        <v>26</v>
+        <v>62</v>
+      </c>
+      <c r="C22" s="25" t="s">
+        <v>58</v>
       </c>
       <c r="D22" s="23">
         <v>43886.0</v>
@@ -1261,10 +1265,10 @@
         <v>21</v>
       </c>
       <c r="B23" s="17" t="s">
-        <v>62</v>
-      </c>
-      <c r="C23" s="3" t="s">
-        <v>26</v>
+        <v>63</v>
+      </c>
+      <c r="C23" s="25" t="s">
+        <v>58</v>
       </c>
       <c r="D23" s="23">
         <v>43892.0</v>
@@ -1287,10 +1291,10 @@
         <v>9</v>
       </c>
       <c r="B24" s="17" t="s">
-        <v>63</v>
-      </c>
-      <c r="C24" s="3" t="s">
-        <v>26</v>
+        <v>64</v>
+      </c>
+      <c r="C24" s="25" t="s">
+        <v>58</v>
       </c>
       <c r="D24" s="23">
         <v>43892.0</v>
@@ -1313,22 +1317,22 @@
         <v>21</v>
       </c>
       <c r="B25" s="17" t="s">
-        <v>62</v>
-      </c>
-      <c r="C25" s="3" t="s">
-        <v>26</v>
+        <v>63</v>
+      </c>
+      <c r="C25" s="25" t="s">
+        <v>58</v>
       </c>
       <c r="D25" s="23">
         <v>43893.0</v>
       </c>
-      <c r="E25" s="25">
+      <c r="E25" s="23">
         <v>43894.0</v>
       </c>
       <c r="F25" s="17" t="s">
         <v>14</v>
       </c>
       <c r="G25" s="3"/>
-      <c r="H25" s="26" t="s">
+      <c r="H25" s="22" t="s">
         <v>15</v>
       </c>
       <c r="I25" s="3"/>
@@ -1338,23 +1342,23 @@
       <c r="A26" s="17" t="s">
         <v>21</v>
       </c>
-      <c r="B26" s="27" t="s">
-        <v>64</v>
-      </c>
-      <c r="C26" s="3" t="s">
-        <v>26</v>
+      <c r="B26" s="17" t="s">
+        <v>65</v>
+      </c>
+      <c r="C26" s="25" t="s">
+        <v>58</v>
       </c>
       <c r="D26" s="23">
         <v>43893.0</v>
       </c>
-      <c r="E26" s="25">
+      <c r="E26" s="23">
         <v>43894.0</v>
       </c>
       <c r="F26" s="17" t="s">
         <v>14</v>
       </c>
       <c r="G26" s="3"/>
-      <c r="H26" s="26" t="s">
+      <c r="H26" s="22" t="s">
         <v>15</v>
       </c>
       <c r="I26" s="3"/>
@@ -1365,10 +1369,10 @@
         <v>16</v>
       </c>
       <c r="B27" s="17" t="s">
-        <v>65</v>
-      </c>
-      <c r="C27" s="28" t="s">
-        <v>26</v>
+        <v>66</v>
+      </c>
+      <c r="C27" s="25" t="s">
+        <v>58</v>
       </c>
       <c r="D27" s="23">
         <v>43893.0</v>
@@ -1376,12 +1380,12 @@
       <c r="E27" s="23">
         <v>43895.0</v>
       </c>
-      <c r="F27" s="27" t="s">
+      <c r="F27" s="17" t="s">
         <v>27</v>
       </c>
       <c r="G27" s="3"/>
       <c r="H27" s="22" t="s">
-        <v>66</v>
+        <v>15</v>
       </c>
       <c r="I27" s="3"/>
       <c r="J27" s="5"/>
@@ -1393,8 +1397,8 @@
       <c r="B28" s="17" t="s">
         <v>67</v>
       </c>
-      <c r="C28" s="28" t="s">
-        <v>26</v>
+      <c r="C28" s="25" t="s">
+        <v>58</v>
       </c>
       <c r="D28" s="23">
         <v>43893.0</v>
@@ -1402,30 +1406,30 @@
       <c r="E28" s="23">
         <v>43895.0</v>
       </c>
-      <c r="F28" s="27" t="s">
+      <c r="F28" s="17" t="s">
         <v>27</v>
       </c>
       <c r="G28" s="3"/>
       <c r="H28" s="22" t="s">
-        <v>66</v>
+        <v>15</v>
       </c>
       <c r="I28" s="3"/>
       <c r="J28" s="5"/>
     </row>
     <row r="29" ht="15.75" customHeight="1">
-      <c r="A29" s="27" t="s">
+      <c r="A29" s="17" t="s">
         <v>46</v>
       </c>
-      <c r="B29" s="27" t="s">
+      <c r="B29" s="17" t="s">
         <v>68</v>
       </c>
-      <c r="C29" s="28" t="s">
-        <v>26</v>
-      </c>
-      <c r="D29" s="25">
+      <c r="C29" s="25" t="s">
+        <v>58</v>
+      </c>
+      <c r="D29" s="23">
         <v>43895.0</v>
       </c>
-      <c r="E29" s="25">
+      <c r="E29" s="23">
         <v>43895.0</v>
       </c>
       <c r="F29" s="17" t="s">
@@ -1433,25 +1437,25 @@
       </c>
       <c r="G29" s="3"/>
       <c r="H29" s="22" t="s">
-        <v>66</v>
+        <v>15</v>
       </c>
       <c r="I29" s="3"/>
       <c r="J29" s="5"/>
     </row>
     <row r="30" ht="15.75" customHeight="1">
-      <c r="A30" s="27" t="s">
+      <c r="A30" s="17" t="s">
         <v>49</v>
       </c>
-      <c r="B30" s="27" t="s">
+      <c r="B30" s="17" t="s">
         <v>69</v>
       </c>
-      <c r="C30" s="28" t="s">
-        <v>26</v>
-      </c>
-      <c r="D30" s="25">
+      <c r="C30" s="25" t="s">
+        <v>58</v>
+      </c>
+      <c r="D30" s="23">
         <v>43895.0</v>
       </c>
-      <c r="E30" s="25">
+      <c r="E30" s="23">
         <v>43895.0</v>
       </c>
       <c r="F30" s="17" t="s">
@@ -1459,44 +1463,86 @@
       </c>
       <c r="G30" s="3"/>
       <c r="H30" s="22" t="s">
-        <v>66</v>
+        <v>15</v>
       </c>
       <c r="I30" s="3"/>
       <c r="J30" s="5"/>
     </row>
     <row r="31" ht="15.75" customHeight="1">
-      <c r="A31" s="3"/>
-      <c r="B31" s="3"/>
-      <c r="C31" s="3"/>
-      <c r="D31" s="3"/>
-      <c r="E31" s="3"/>
-      <c r="F31" s="3"/>
+      <c r="A31" s="25" t="s">
+        <v>21</v>
+      </c>
+      <c r="B31" s="25" t="s">
+        <v>70</v>
+      </c>
+      <c r="C31" s="25" t="s">
+        <v>58</v>
+      </c>
+      <c r="D31" s="26">
+        <v>43904.0</v>
+      </c>
+      <c r="E31" s="26">
+        <v>43904.0</v>
+      </c>
+      <c r="F31" s="17" t="s">
+        <v>14</v>
+      </c>
       <c r="G31" s="3"/>
-      <c r="H31" s="4"/>
+      <c r="H31" s="22" t="s">
+        <v>15</v>
+      </c>
       <c r="I31" s="3"/>
       <c r="J31" s="5"/>
     </row>
-    <row r="32" ht="15.75" customHeight="1">
-      <c r="A32" s="3"/>
-      <c r="B32" s="3"/>
-      <c r="C32" s="3"/>
-      <c r="D32" s="3"/>
-      <c r="E32" s="3"/>
-      <c r="F32" s="3"/>
+    <row r="32" ht="30.75" customHeight="1">
+      <c r="A32" s="25" t="s">
+        <v>21</v>
+      </c>
+      <c r="B32" s="27" t="s">
+        <v>71</v>
+      </c>
+      <c r="C32" s="25" t="s">
+        <v>58</v>
+      </c>
+      <c r="D32" s="26">
+        <v>43904.0</v>
+      </c>
+      <c r="E32" s="26">
+        <v>43904.0</v>
+      </c>
+      <c r="F32" s="17" t="s">
+        <v>14</v>
+      </c>
       <c r="G32" s="3"/>
-      <c r="H32" s="4"/>
+      <c r="H32" s="22" t="s">
+        <v>15</v>
+      </c>
       <c r="I32" s="3"/>
       <c r="J32" s="5"/>
     </row>
-    <row r="33" ht="15.75" customHeight="1">
-      <c r="A33" s="3"/>
-      <c r="B33" s="3"/>
-      <c r="C33" s="3"/>
-      <c r="D33" s="3"/>
-      <c r="E33" s="3"/>
-      <c r="F33" s="3"/>
+    <row r="33" ht="31.5" customHeight="1">
+      <c r="A33" s="25" t="s">
+        <v>21</v>
+      </c>
+      <c r="B33" s="27" t="s">
+        <v>72</v>
+      </c>
+      <c r="C33" s="25" t="s">
+        <v>58</v>
+      </c>
+      <c r="D33" s="26">
+        <v>43904.0</v>
+      </c>
+      <c r="E33" s="26">
+        <v>43904.0</v>
+      </c>
+      <c r="F33" s="17" t="s">
+        <v>14</v>
+      </c>
       <c r="G33" s="3"/>
-      <c r="H33" s="4"/>
+      <c r="H33" s="22" t="s">
+        <v>15</v>
+      </c>
       <c r="I33" s="3"/>
       <c r="J33" s="5"/>
     </row>
